--- a/exposan/bwaise/results/MorrisC.xlsx
+++ b/exposan/bwaise/results/MorrisC.xlsx
@@ -847,16 +847,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>-0.5079185623034281</v>
+        <v>-0.507918562303427</v>
       </c>
       <c r="C6">
-        <v>0.5079185623034281</v>
+        <v>0.507918562303427</v>
       </c>
       <c r="D6">
-        <v>0.3044630259854364</v>
+        <v>0.304463025985437</v>
       </c>
       <c r="E6">
-        <v>0.150971530572343</v>
+        <v>0.1509715305723429</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -983,16 +983,16 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.08641958859430617</v>
+        <v>0.08641958859430829</v>
       </c>
       <c r="C14">
-        <v>0.08641958859430617</v>
+        <v>0.08641958859430829</v>
       </c>
       <c r="D14">
-        <v>0.06628659715743204</v>
+        <v>0.06628659715743536</v>
       </c>
       <c r="E14">
-        <v>0.03649439822677415</v>
+        <v>0.03649439822677646</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1000,16 +1000,16 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.001243008875866991</v>
+        <v>0.00124300887586859</v>
       </c>
       <c r="C15">
-        <v>0.001901110770516823</v>
+        <v>0.001901110770517356</v>
       </c>
       <c r="D15">
-        <v>0.00214269933719167</v>
+        <v>0.002142699337193609</v>
       </c>
       <c r="E15">
-        <v>0.0009476049255787142</v>
+        <v>0.0009476049255810196</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1102,16 +1102,16 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.0005140038871646269</v>
+        <v>0.000514003887163561</v>
       </c>
       <c r="C21">
-        <v>0.0005140038871646269</v>
+        <v>0.000514003887163561</v>
       </c>
       <c r="D21">
-        <v>0.0002425652185933162</v>
+        <v>0.0002425652185940619</v>
       </c>
       <c r="E21">
-        <v>0.0001636116100193188</v>
+        <v>0.000163611610019784</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1663,16 +1663,16 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>3.734772045542154</v>
+        <v>3.734772045542152</v>
       </c>
       <c r="C54">
-        <v>3.734772045542154</v>
+        <v>3.734772045542152</v>
       </c>
       <c r="D54">
-        <v>1.27765944596942</v>
+        <v>1.277659445969421</v>
       </c>
       <c r="E54">
-        <v>0.6960779521192355</v>
+        <v>0.6960779521192364</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1918,16 +1918,16 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.03389033741453051</v>
+        <v>0.03389033741452945</v>
       </c>
       <c r="C69">
-        <v>0.03389033741453051</v>
+        <v>0.03389033741452945</v>
       </c>
       <c r="D69">
-        <v>0.03612078208569033</v>
+        <v>0.03612078208569076</v>
       </c>
       <c r="E69">
-        <v>0.02229771561263717</v>
+        <v>0.0222977156126377</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1952,16 +1952,16 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>-0.004031782597061451</v>
+        <v>-0.004031782597062517</v>
       </c>
       <c r="C71">
-        <v>0.004031782597061451</v>
+        <v>0.004031782597062517</v>
       </c>
       <c r="D71">
-        <v>0.002341574396755736</v>
+        <v>0.002341574396755037</v>
       </c>
       <c r="E71">
-        <v>0.001318292518800409</v>
+        <v>0.001318292518799892</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2020,16 +2020,16 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.03490774033486214</v>
+        <v>0.03490774033486321</v>
       </c>
       <c r="C75">
-        <v>0.03490774033486214</v>
+        <v>0.03490774033486321</v>
       </c>
       <c r="D75">
-        <v>0.01943576187696979</v>
+        <v>0.01943576187696974</v>
       </c>
       <c r="E75">
-        <v>0.01250058253130957</v>
+        <v>0.01250058253130923</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2224,16 +2224,16 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>-1.688504403872777</v>
+        <v>-1.688504403872778</v>
       </c>
       <c r="C87">
-        <v>1.688504403872777</v>
+        <v>1.688504403872778</v>
       </c>
       <c r="D87">
-        <v>0.8104479471529205</v>
+        <v>0.8104479471529193</v>
       </c>
       <c r="E87">
-        <v>0.4967544693647986</v>
+        <v>0.4967544693647978</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2377,13 +2377,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>-0.2231685482619268</v>
+        <v>-0.2231685482619278</v>
       </c>
       <c r="C96">
-        <v>0.2231685482619268</v>
+        <v>0.2231685482619278</v>
       </c>
       <c r="D96">
-        <v>0.1863886558733477</v>
+        <v>0.1863886558733475</v>
       </c>
       <c r="E96">
         <v>0.1224153877956202</v>
@@ -2394,16 +2394,16 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>-0.04668912210443388</v>
+        <v>-0.04668912210443495</v>
       </c>
       <c r="C97">
-        <v>0.04668912210443388</v>
+        <v>0.04668912210443495</v>
       </c>
       <c r="D97">
-        <v>0.02812762713231771</v>
+        <v>0.02812762713231693</v>
       </c>
       <c r="E97">
-        <v>0.01726548501855325</v>
+        <v>0.01726548501855257</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2768,16 +2768,16 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>3.799893237757824</v>
+        <v>3.799893237757822</v>
       </c>
       <c r="C119">
-        <v>3.799893237757824</v>
+        <v>3.799893237757822</v>
       </c>
       <c r="D119">
-        <v>3.667280380206347</v>
+        <v>3.667280380206346</v>
       </c>
       <c r="E119">
-        <v>1.961577764058195</v>
+        <v>1.961577764058194</v>
       </c>
     </row>
     <row r="120" spans="1:5">

--- a/exposan/bwaise/results/MorrisC.xlsx
+++ b/exposan/bwaise/results/MorrisC.xlsx
@@ -788,16 +788,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>-0.07162550587577102</v>
+        <v>-0.07174733066579062</v>
       </c>
       <c r="D2">
-        <v>0.07162550587577102</v>
+        <v>0.07174733066579062</v>
       </c>
       <c r="E2">
-        <v>0.0291106135524386</v>
+        <v>0.02908844621500243</v>
       </c>
       <c r="F2">
-        <v>0.0161134894388401</v>
+        <v>0.01610347343873366</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -808,16 +808,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>-0.2647240828133606</v>
+        <v>-0.2647790023696819</v>
       </c>
       <c r="D3">
-        <v>0.2647240828133606</v>
+        <v>0.2647790023696819</v>
       </c>
       <c r="E3">
-        <v>0.1542663480901239</v>
+        <v>0.154318735867714</v>
       </c>
       <c r="F3">
-        <v>0.08643688210361404</v>
+        <v>0.08646905993479576</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -828,16 +828,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>-0.07044911948575212</v>
+        <v>-0.07046546089368669</v>
       </c>
       <c r="D4">
-        <v>0.07044911948575212</v>
+        <v>0.07046546089368669</v>
       </c>
       <c r="E4">
-        <v>0.03865819408353845</v>
+        <v>0.03865810919567404</v>
       </c>
       <c r="F4">
-        <v>0.0239720294755414</v>
+        <v>0.02397075883637422</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -848,16 +848,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>-0.4400883251160712</v>
+        <v>-0.4400614527663048</v>
       </c>
       <c r="D5">
-        <v>0.4400883251160712</v>
+        <v>0.4400614527663048</v>
       </c>
       <c r="E5">
-        <v>0.261790788829972</v>
+        <v>0.2617622489286183</v>
       </c>
       <c r="F5">
-        <v>0.1454020233999151</v>
+        <v>0.1453903160077794</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -868,16 +868,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>-0.507918562303427</v>
+        <v>-0.5084246547043975</v>
       </c>
       <c r="D6">
-        <v>0.507918562303427</v>
+        <v>0.5084246547043975</v>
       </c>
       <c r="E6">
-        <v>0.304463025985437</v>
+        <v>0.3043312951264464</v>
       </c>
       <c r="F6">
-        <v>0.1509715305723429</v>
+        <v>0.150865817180045</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -888,16 +888,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>-0.1168024636515302</v>
+        <v>-0.1169155881630106</v>
       </c>
       <c r="D7">
-        <v>0.1168024636515302</v>
+        <v>0.1169155881630106</v>
       </c>
       <c r="E7">
-        <v>0.06825293584983705</v>
+        <v>0.06827192650725743</v>
       </c>
       <c r="F7">
-        <v>0.04109853827942451</v>
+        <v>0.04110134492816833</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -908,16 +908,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>-0.09537766860130539</v>
+        <v>-0.09549153013872846</v>
       </c>
       <c r="D8">
-        <v>0.09537766860130539</v>
+        <v>0.09549153013872846</v>
       </c>
       <c r="E8">
-        <v>0.0324622128657809</v>
+        <v>0.03241636449350555</v>
       </c>
       <c r="F8">
-        <v>0.01896380807166092</v>
+        <v>0.01894132590635874</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -928,16 +928,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>-0.0113388203777145</v>
+        <v>-0.01133842886520249</v>
       </c>
       <c r="D9">
-        <v>0.0113388203777145</v>
+        <v>0.01133842886520249</v>
       </c>
       <c r="E9">
-        <v>0.005062284510945981</v>
+        <v>0.005061376616462384</v>
       </c>
       <c r="F9">
-        <v>0.002622810810293448</v>
+        <v>0.002622328620228768</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -948,16 +948,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>-0.002553129055260151</v>
+        <v>-0.002554858643519964</v>
       </c>
       <c r="D10">
-        <v>0.002553129055260151</v>
+        <v>0.002554858643519964</v>
       </c>
       <c r="E10">
-        <v>0.003772739760261251</v>
+        <v>0.003773000458971922</v>
       </c>
       <c r="F10">
-        <v>0.002121174927096138</v>
+        <v>0.002121370739304925</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -968,16 +968,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>-0.1251120201500539</v>
+        <v>-0.1253081367642642</v>
       </c>
       <c r="D11">
-        <v>0.1251120201500539</v>
+        <v>0.1253081367642642</v>
       </c>
       <c r="E11">
-        <v>0.05097089877194038</v>
+        <v>0.05091846727442816</v>
       </c>
       <c r="F11">
-        <v>0.02701034275659927</v>
+        <v>0.0269765195493743</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1008,16 +1008,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>-0.1063392205980604</v>
+        <v>-0.1063498326656029</v>
       </c>
       <c r="D13">
-        <v>0.1063392205980604</v>
+        <v>0.1063498326656029</v>
       </c>
       <c r="E13">
-        <v>0.05338865296009439</v>
+        <v>0.05345714775166101</v>
       </c>
       <c r="F13">
-        <v>0.02868184189331098</v>
+        <v>0.02872297636983059</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1028,16 +1028,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>0.08641958859430829</v>
+        <v>0.08669255213756059</v>
       </c>
       <c r="D14">
-        <v>0.08641958859430829</v>
+        <v>0.08669255213756059</v>
       </c>
       <c r="E14">
-        <v>0.06628659715743536</v>
+        <v>0.06630995928718918</v>
       </c>
       <c r="F14">
-        <v>0.03649439822677646</v>
+        <v>0.03649916537144687</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1048,16 +1048,16 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>0.00124300887586859</v>
+        <v>0.001849755060202618</v>
       </c>
       <c r="D15">
-        <v>0.001901110770517356</v>
+        <v>0.001923759140503201</v>
       </c>
       <c r="E15">
-        <v>0.002142699337193609</v>
+        <v>0.002012417523762393</v>
       </c>
       <c r="F15">
-        <v>0.0009476049255810196</v>
+        <v>0.001202598084146479</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1088,16 +1088,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>0.003833695559251993</v>
+        <v>0.003833695559253059</v>
       </c>
       <c r="D17">
-        <v>0.006154284166934332</v>
+        <v>0.006154284166937529</v>
       </c>
       <c r="E17">
-        <v>0.006494605919864191</v>
+        <v>0.006494605919866585</v>
       </c>
       <c r="F17">
-        <v>0.002419508336647524</v>
+        <v>0.002419508336647617</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1108,16 +1108,16 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>0.0002035500862620054</v>
+        <v>0.0002035500862662687</v>
       </c>
       <c r="D18">
-        <v>0.0002035500862620054</v>
+        <v>0.0002035500862662687</v>
       </c>
       <c r="E18">
-        <v>9.787607190096247E-05</v>
+        <v>9.787607190124263E-05</v>
       </c>
       <c r="F18">
-        <v>5.848204894641598E-05</v>
+        <v>5.848204894583921E-05</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1128,16 +1128,16 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>4.193264336239396</v>
+        <v>4.193264336239398</v>
       </c>
       <c r="D19">
-        <v>4.193264336239396</v>
+        <v>4.193264336239398</v>
       </c>
       <c r="E19">
-        <v>0.8996450183435191</v>
+        <v>0.8996450183435162</v>
       </c>
       <c r="F19">
-        <v>0.5684727616528936</v>
+        <v>0.5684727616528921</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1148,16 +1148,16 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.011315040293845</v>
+        <v>1.338947711026586</v>
       </c>
       <c r="D20">
-        <v>3.011315040293845</v>
+        <v>1.338947711026586</v>
       </c>
       <c r="E20">
-        <v>1.128585261815524</v>
+        <v>0.2052388194429753</v>
       </c>
       <c r="F20">
-        <v>0.6282213320529795</v>
+        <v>0.1190006090937245</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1168,16 +1168,16 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>0.000514003887163561</v>
+        <v>0.0005140038871651598</v>
       </c>
       <c r="D21">
-        <v>0.000514003887163561</v>
+        <v>0.0005140038871651598</v>
       </c>
       <c r="E21">
-        <v>0.0002425652185940619</v>
+        <v>0.0002425652186000847</v>
       </c>
       <c r="F21">
-        <v>0.000163611610019784</v>
+        <v>0.0001636116100235716</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1188,16 +1188,16 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>-0.6790546510411252</v>
+        <v>-0.08217633622370232</v>
       </c>
       <c r="D22">
-        <v>0.6790546510411252</v>
+        <v>0.08217633622370232</v>
       </c>
       <c r="E22">
-        <v>0.5497869681700757</v>
+        <v>0.06228884196263018</v>
       </c>
       <c r="F22">
-        <v>0.2992116645391724</v>
+        <v>0.03699648239556171</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1208,16 +1208,16 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>5.329070518200751E-16</v>
       </c>
       <c r="D23">
-        <v>2.1316282072803E-15</v>
+        <v>5.329070518200751E-16</v>
       </c>
       <c r="E23">
-        <v>5.024295867788081E-15</v>
+        <v>1.685200064916816E-15</v>
       </c>
       <c r="F23">
-        <v>2.429962245600918E-15</v>
+        <v>1.035791263323882E-15</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1228,16 +1228,16 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>0.0001741751740132358</v>
+        <v>2.388351125830468E-05</v>
       </c>
       <c r="D24">
-        <v>0.0001741751740132358</v>
+        <v>2.388351125830468E-05</v>
       </c>
       <c r="E24">
-        <v>0.0001071414864161748</v>
+        <v>1.566661731279221E-05</v>
       </c>
       <c r="F24">
-        <v>6.392088544720716E-05</v>
+        <v>1.022670995752796E-05</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1248,16 +1248,16 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>0.04317408568680872</v>
+        <v>0.04317408568680951</v>
       </c>
       <c r="D25">
-        <v>0.04317408797833995</v>
+        <v>0.04317408797834021</v>
       </c>
       <c r="E25">
-        <v>0.03177806705111857</v>
+        <v>0.03177806705112179</v>
       </c>
       <c r="F25">
-        <v>0.01824047676680939</v>
+        <v>0.01824047676681142</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1268,16 +1268,16 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>0.00284940579861086</v>
+        <v>0.0004576547153029687</v>
       </c>
       <c r="D26">
-        <v>0.00284940579861086</v>
+        <v>0.0004576547153029687</v>
       </c>
       <c r="E26">
-        <v>0.001697660008768394</v>
+        <v>0.0002941456060276988</v>
       </c>
       <c r="F26">
-        <v>0.00113919947167595</v>
+        <v>0.0001872954091993991</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1308,16 +1308,16 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>-9.341052302624291</v>
+        <v>-9.341052302624281</v>
       </c>
       <c r="D28">
-        <v>9.341052302624291</v>
+        <v>9.341052302624281</v>
       </c>
       <c r="E28">
-        <v>7.525008734137724</v>
+        <v>7.525008734137714</v>
       </c>
       <c r="F28">
-        <v>4.673173764771536</v>
+        <v>4.673173764771531</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1328,16 +1328,16 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>0.06459904374254126</v>
+        <v>0.02090660299789935</v>
       </c>
       <c r="D29">
-        <v>0.06459904374254126</v>
+        <v>0.02090660299789935</v>
       </c>
       <c r="E29">
-        <v>0.03260264086054578</v>
+        <v>0.003131086588202534</v>
       </c>
       <c r="F29">
-        <v>0.01937761048333342</v>
+        <v>0.001688268516389804</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1348,16 +1348,16 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>15.67784480342989</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>15.67784480342989</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>11.71908804698484</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>6.906508787983842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1388,16 +1388,16 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>5.968349733723531</v>
+        <v>1.341047356121523</v>
       </c>
       <c r="D32">
-        <v>5.968349733723531</v>
+        <v>1.341047356121523</v>
       </c>
       <c r="E32">
-        <v>3.330403784714938</v>
+        <v>0.3671402999073733</v>
       </c>
       <c r="F32">
-        <v>1.921641966881364</v>
+        <v>0.2158807120124429</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1408,16 +1408,16 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>-0.01017018340092726</v>
+        <v>-0.001428939013788621</v>
       </c>
       <c r="D33">
-        <v>0.01017018340092726</v>
+        <v>0.001428939013788621</v>
       </c>
       <c r="E33">
-        <v>0.008924843033473811</v>
+        <v>0.001245169850193097</v>
       </c>
       <c r="F33">
-        <v>0.005058204835959483</v>
+        <v>0.0006625150074705438</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1428,16 +1428,16 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>0.0003502442592926869</v>
+        <v>0.0006519814094154697</v>
       </c>
       <c r="D34">
-        <v>0.0004071522974870234</v>
+        <v>0.0006519814094154697</v>
       </c>
       <c r="E34">
-        <v>0.0005107784109410319</v>
+        <v>0.0008117973819290735</v>
       </c>
       <c r="F34">
-        <v>0.0002743064660216463</v>
+        <v>0.0004930808333167813</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1488,16 +1488,16 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>2.490353888941112</v>
+        <v>0.2752051306701155</v>
       </c>
       <c r="D37">
-        <v>2.490353888941112</v>
+        <v>0.2752051306701155</v>
       </c>
       <c r="E37">
-        <v>1.413905319344503</v>
+        <v>0.08360297375272147</v>
       </c>
       <c r="F37">
-        <v>0.7845305337014601</v>
+        <v>0.05127209784433962</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1608,16 +1608,16 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>-14.08622731063138</v>
+        <v>-0.04882266748601509</v>
       </c>
       <c r="D43">
-        <v>14.08622731063138</v>
+        <v>0.04882266748601509</v>
       </c>
       <c r="E43">
-        <v>10.93787770089699</v>
+        <v>0.03909556551736831</v>
       </c>
       <c r="F43">
-        <v>6.644254681042959</v>
+        <v>0.02198645804512574</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1628,16 +1628,16 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>0.06757867069597356</v>
+        <v>0.06757867069597623</v>
       </c>
       <c r="D44">
-        <v>0.06757867069597356</v>
+        <v>0.06757867069597623</v>
       </c>
       <c r="E44">
-        <v>0.0253461248359848</v>
+        <v>0.02534612483598204</v>
       </c>
       <c r="F44">
-        <v>0.01722628563693689</v>
+        <v>0.0172262856369347</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1768,16 +1768,16 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>0.479560367411551</v>
+        <v>0.003698605867845472</v>
       </c>
       <c r="D51">
-        <v>0.479560367411551</v>
+        <v>0.003698605867845472</v>
       </c>
       <c r="E51">
-        <v>0.3604961720022508</v>
+        <v>0.003690983534236352</v>
       </c>
       <c r="F51">
-        <v>0.2280640271320118</v>
+        <v>0.002111646735321678</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1788,16 +1788,16 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>-1.22000309248146</v>
+        <v>-0.004432402530992263</v>
       </c>
       <c r="D52">
-        <v>1.22000309248146</v>
+        <v>0.004432402530992263</v>
       </c>
       <c r="E52">
-        <v>0.8943283525460252</v>
+        <v>0.004580556734467463</v>
       </c>
       <c r="F52">
-        <v>0.4859004063792416</v>
+        <v>0.002575649537635089</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1808,16 +1808,16 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>1.978821947514771</v>
+        <v>1.450826493297031</v>
       </c>
       <c r="D53">
-        <v>1.978821947514771</v>
+        <v>1.450826493297031</v>
       </c>
       <c r="E53">
-        <v>0.5925716242778324</v>
+        <v>0.5840709003644474</v>
       </c>
       <c r="F53">
-        <v>0.3366581964644775</v>
+        <v>0.366459008513228</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1828,16 +1828,16 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.734772045542152</v>
+        <v>2.541409254760263</v>
       </c>
       <c r="D54">
-        <v>3.734772045542152</v>
+        <v>2.541409254760263</v>
       </c>
       <c r="E54">
-        <v>1.277659445969421</v>
+        <v>1.239889759613175</v>
       </c>
       <c r="F54">
-        <v>0.6960779521192364</v>
+        <v>0.6371851257146971</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1848,16 +1848,16 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>0.04606201432020516</v>
+        <v>0.04606201432020995</v>
       </c>
       <c r="D55">
-        <v>0.04606201432020516</v>
+        <v>0.04606201432020995</v>
       </c>
       <c r="E55">
-        <v>0.02983481092055914</v>
+        <v>0.02983481092055779</v>
       </c>
       <c r="F55">
-        <v>0.01736872826628305</v>
+        <v>0.01736872826628208</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2088,16 +2088,16 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>0.007821459283757371</v>
+        <v>0.007821459283754439</v>
       </c>
       <c r="D67">
-        <v>0.007821459283757371</v>
+        <v>0.007821459283754439</v>
       </c>
       <c r="E67">
-        <v>0.003466623490042425</v>
+        <v>0.00346662349004866</v>
       </c>
       <c r="F67">
-        <v>0.002048305847588011</v>
+        <v>0.00204830584759127</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2134,10 +2134,10 @@
         <v>0.03389033741452945</v>
       </c>
       <c r="E69">
-        <v>0.03612078208569076</v>
+        <v>0.03612078208569432</v>
       </c>
       <c r="F69">
-        <v>0.0222977156126377</v>
+        <v>0.02229771561263986</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2168,16 +2168,16 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>-0.004031782597062517</v>
+        <v>-0.004031782597056921</v>
       </c>
       <c r="D71">
-        <v>0.004031782597062517</v>
+        <v>0.004031782597056921</v>
       </c>
       <c r="E71">
-        <v>0.002341574396755037</v>
+        <v>0.002341574396752797</v>
       </c>
       <c r="F71">
-        <v>0.001318292518799892</v>
+        <v>0.001318292518799057</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2188,16 +2188,16 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>0.02283647505249266</v>
+        <v>0.0228364750524932</v>
       </c>
       <c r="D72">
-        <v>0.02283647505249266</v>
+        <v>0.0228364750524932</v>
       </c>
       <c r="E72">
-        <v>0.01253925496609296</v>
+        <v>0.01253925496610117</v>
       </c>
       <c r="F72">
-        <v>0.008673603114130712</v>
+        <v>0.008673603114135113</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2248,16 +2248,16 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>0.03490774033486321</v>
+        <v>0.03490774033486295</v>
       </c>
       <c r="D75">
-        <v>0.03490774033486321</v>
+        <v>0.03490774033486295</v>
       </c>
       <c r="E75">
-        <v>0.01943576187696974</v>
+        <v>0.01943576187697279</v>
       </c>
       <c r="F75">
-        <v>0.01250058253130923</v>
+        <v>0.01250058253131188</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2448,16 +2448,16 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>0.07881598541302566</v>
+        <v>0.07881598541302699</v>
       </c>
       <c r="D85">
-        <v>0.07881598541302566</v>
+        <v>0.07881598541302699</v>
       </c>
       <c r="E85">
-        <v>0.0337710309567818</v>
+        <v>0.03377103095678187</v>
       </c>
       <c r="F85">
-        <v>0.02004143474194098</v>
+        <v>0.02004143474194078</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2468,16 +2468,16 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>0.02425360713658282</v>
+        <v>0.02425360713658069</v>
       </c>
       <c r="D86">
-        <v>0.02425360713658282</v>
+        <v>0.02425360713658069</v>
       </c>
       <c r="E86">
-        <v>0.01327940793843504</v>
+        <v>0.01327940793843057</v>
       </c>
       <c r="F86">
-        <v>0.00753632480231167</v>
+        <v>0.007536324802309094</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2488,16 +2488,16 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>-1.688504403872778</v>
+        <v>-0.481424871799265</v>
       </c>
       <c r="D87">
-        <v>1.688504403872778</v>
+        <v>0.481424871799265</v>
       </c>
       <c r="E87">
-        <v>0.8104479471529193</v>
+        <v>0.1583478523377495</v>
       </c>
       <c r="F87">
-        <v>0.4967544693647978</v>
+        <v>0.08944219100470027</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2628,16 +2628,16 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>-1.987256678130788</v>
+        <v>-1.987256678130794</v>
       </c>
       <c r="D94">
-        <v>1.987256678130788</v>
+        <v>1.987256678130794</v>
       </c>
       <c r="E94">
-        <v>0.4272249759739227</v>
+        <v>0.4272249759739213</v>
       </c>
       <c r="F94">
-        <v>0.2430794219427602</v>
+        <v>0.2430794219427586</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2648,16 +2648,16 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>-0.7639090843461238</v>
+        <v>-0.7639090843461219</v>
       </c>
       <c r="D95">
-        <v>0.7639090843461238</v>
+        <v>0.7639090843461219</v>
       </c>
       <c r="E95">
-        <v>0.3334211469402508</v>
+        <v>0.333421146940252</v>
       </c>
       <c r="F95">
-        <v>0.2030977865247205</v>
+        <v>0.2030977865247212</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2668,16 +2668,16 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>-0.2231685482619278</v>
+        <v>-0.2231685482619263</v>
       </c>
       <c r="D96">
-        <v>0.2231685482619278</v>
+        <v>0.2231685482619263</v>
       </c>
       <c r="E96">
-        <v>0.1863886558733475</v>
+        <v>0.1863886558733474</v>
       </c>
       <c r="F96">
-        <v>0.1224153877956202</v>
+        <v>0.1224153877956201</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2694,10 +2694,10 @@
         <v>0.04668912210443495</v>
       </c>
       <c r="E97">
-        <v>0.02812762713231693</v>
+        <v>0.02812762713232136</v>
       </c>
       <c r="F97">
-        <v>0.01726548501855257</v>
+        <v>0.01726548501855482</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2708,16 +2708,16 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>2.477340916954218</v>
+        <v>2.477340916954216</v>
       </c>
       <c r="D98">
-        <v>2.477340916954218</v>
+        <v>2.477340916954216</v>
       </c>
       <c r="E98">
-        <v>1.367030494271975</v>
+        <v>1.367030494271977</v>
       </c>
       <c r="F98">
-        <v>0.8402698692715822</v>
+        <v>0.8402698692715831</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2728,16 +2728,16 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>0.01626042608727953</v>
+        <v>0.016260426087279</v>
       </c>
       <c r="D99">
-        <v>0.01626042608727953</v>
+        <v>0.016260426087279</v>
       </c>
       <c r="E99">
-        <v>8.120885038984283E-15</v>
+        <v>4.897077909702815E-15</v>
       </c>
       <c r="F99">
-        <v>4.029569392087546E-15</v>
+        <v>2.95736886851658E-15</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3108,16 +3108,16 @@
         <v>121</v>
       </c>
       <c r="C118">
-        <v>5.496021684301607</v>
+        <v>5.496021684301612</v>
       </c>
       <c r="D118">
-        <v>5.496021684301607</v>
+        <v>5.496021684301612</v>
       </c>
       <c r="E118">
-        <v>5.324562890138588</v>
+        <v>5.324562890138591</v>
       </c>
       <c r="F118">
-        <v>3.015851771619548</v>
+        <v>3.01585177161955</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3128,16 +3128,16 @@
         <v>122</v>
       </c>
       <c r="C119">
-        <v>3.799893237757822</v>
+        <v>3.799893237757819</v>
       </c>
       <c r="D119">
-        <v>3.799893237757822</v>
+        <v>3.799893237757819</v>
       </c>
       <c r="E119">
-        <v>3.667280380206346</v>
+        <v>3.667280380206341</v>
       </c>
       <c r="F119">
-        <v>1.961577764058194</v>
+        <v>1.961577764058191</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3148,16 +3148,16 @@
         <v>123</v>
       </c>
       <c r="C120">
-        <v>8.237096479491619</v>
+        <v>8.237096479491621</v>
       </c>
       <c r="D120">
-        <v>8.237096479491619</v>
+        <v>8.237096479491621</v>
       </c>
       <c r="E120">
-        <v>0.2130185365888925</v>
+        <v>0.2130185365888876</v>
       </c>
       <c r="F120">
-        <v>0.1395174011077817</v>
+        <v>0.1395174011077782</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3168,16 +3168,16 @@
         <v>124</v>
       </c>
       <c r="C121">
-        <v>12.62354246385698</v>
+        <v>3.343660175457434</v>
       </c>
       <c r="D121">
-        <v>12.62354246385698</v>
+        <v>3.343660175457434</v>
       </c>
       <c r="E121">
-        <v>5.737337739499003</v>
+        <v>1.148526148581582</v>
       </c>
       <c r="F121">
-        <v>3.344175316141752</v>
+        <v>0.6665202807650231</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3194,10 +3194,10 @@
         <v>1.391211422036506</v>
       </c>
       <c r="E122">
-        <v>0.1577364186736611</v>
+        <v>0.1577364186736644</v>
       </c>
       <c r="F122">
-        <v>0.08148509638798269</v>
+        <v>0.08148509638798446</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3208,16 +3208,16 @@
         <v>126</v>
       </c>
       <c r="C123">
-        <v>0.3375945486475608</v>
+        <v>0.3375945486475629</v>
       </c>
       <c r="D123">
-        <v>0.3375945486475608</v>
+        <v>0.3375945486475629</v>
       </c>
       <c r="E123">
-        <v>0.01134003432415592</v>
+        <v>0.01134003432415536</v>
       </c>
       <c r="F123">
-        <v>0.007126847033818169</v>
+        <v>0.007126847033818027</v>
       </c>
     </row>
   </sheetData>
@@ -3258,16 +3258,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2.756551676269291</v>
+        <v>2.756033650487752</v>
       </c>
       <c r="D2">
-        <v>2.76774157139407</v>
+        <v>2.767224236653601</v>
       </c>
       <c r="E2">
-        <v>1.637338508761188</v>
+        <v>1.637280351411516</v>
       </c>
       <c r="F2">
-        <v>0.9738221263187602</v>
+        <v>0.973772408271092</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3278,16 +3278,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>-2.287919420654875</v>
+        <v>-2.287935341350428</v>
       </c>
       <c r="D3">
-        <v>2.287919420654875</v>
+        <v>2.287935341350428</v>
       </c>
       <c r="E3">
-        <v>1.256401823044151</v>
+        <v>1.256410864947986</v>
       </c>
       <c r="F3">
-        <v>0.8281330382163929</v>
+        <v>0.8281404434209026</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3298,16 +3298,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>-0.7012399061213507</v>
+        <v>-0.7012467745490276</v>
       </c>
       <c r="D4">
-        <v>0.7012399061213507</v>
+        <v>0.7012467745490276</v>
       </c>
       <c r="E4">
-        <v>0.3541733137689362</v>
+        <v>0.3541745689152569</v>
       </c>
       <c r="F4">
-        <v>0.2023943416556581</v>
+        <v>0.2023949114379453</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3318,16 +3318,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>-5.904604490497964</v>
+        <v>-5.90463292468462</v>
       </c>
       <c r="D5">
-        <v>5.904604490497964</v>
+        <v>5.90463292468462</v>
       </c>
       <c r="E5">
-        <v>2.256367899497391</v>
+        <v>2.256380362145843</v>
       </c>
       <c r="F5">
-        <v>1.260159301380948</v>
+        <v>1.260163494488149</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3338,16 +3338,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>-1.893745756106506</v>
+        <v>-1.893841368055587</v>
       </c>
       <c r="D6">
-        <v>1.893745756106506</v>
+        <v>1.893841368055587</v>
       </c>
       <c r="E6">
-        <v>0.3275979006627438</v>
+        <v>0.3277591335097259</v>
       </c>
       <c r="F6">
-        <v>0.213111996300585</v>
+        <v>0.2132171551621573</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3358,16 +3358,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>-0.3741584571511329</v>
+        <v>-0.3741697506435915</v>
       </c>
       <c r="D7">
-        <v>0.3741584571511329</v>
+        <v>0.3741697506435915</v>
       </c>
       <c r="E7">
-        <v>0.07036334576395809</v>
+        <v>0.07037421437431952</v>
       </c>
       <c r="F7">
-        <v>0.04077547188685135</v>
+        <v>0.04078216151213252</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3378,16 +3378,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>-0.3530231867196257</v>
+        <v>-0.3530366396874601</v>
       </c>
       <c r="D8">
-        <v>0.3530231867196257</v>
+        <v>0.3530366396874601</v>
       </c>
       <c r="E8">
-        <v>0.0802518981790746</v>
+        <v>0.08027149295099099</v>
       </c>
       <c r="F8">
-        <v>0.0478774339704074</v>
+        <v>0.04788936893135631</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3398,16 +3398,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>-0.1458472011052538</v>
+        <v>-0.1458478200419608</v>
       </c>
       <c r="D9">
-        <v>0.1458472011052538</v>
+        <v>0.1458478200419608</v>
       </c>
       <c r="E9">
-        <v>0.05713248380966803</v>
+        <v>0.05713216869720401</v>
       </c>
       <c r="F9">
-        <v>0.03268985237204885</v>
+        <v>0.03268963027250427</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3418,16 +3418,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>-0.009029925691832918</v>
+        <v>-0.009030333912546151</v>
       </c>
       <c r="D10">
-        <v>0.009029925691832918</v>
+        <v>0.009030333912546151</v>
       </c>
       <c r="E10">
-        <v>0.00816001823447517</v>
+        <v>0.00815991661413489</v>
       </c>
       <c r="F10">
-        <v>0.004660230270898849</v>
+        <v>0.004660157679977498</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3438,16 +3438,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>-0.5297981732587972</v>
+        <v>-0.5298623127819537</v>
       </c>
       <c r="D11">
-        <v>0.5297981732587972</v>
+        <v>0.5298623127819537</v>
       </c>
       <c r="E11">
-        <v>0.1250811381173359</v>
+        <v>0.1251117791095911</v>
       </c>
       <c r="F11">
-        <v>0.07774152674353457</v>
+        <v>0.07776194086673281</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3458,16 +3458,16 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>24.07228098710646</v>
+        <v>24.05896678600474</v>
       </c>
       <c r="D12">
-        <v>24.07228098710646</v>
+        <v>24.05896678600474</v>
       </c>
       <c r="E12">
-        <v>16.3346246276845</v>
+        <v>16.33193955862541</v>
       </c>
       <c r="F12">
-        <v>9.914199383454037</v>
+        <v>9.912726753909832</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3478,16 +3478,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>-1.845306103888409</v>
+        <v>-1.845169303607667</v>
       </c>
       <c r="D13">
-        <v>1.845306103888409</v>
+        <v>1.845169303607667</v>
       </c>
       <c r="E13">
-        <v>0.6719443710760303</v>
+        <v>0.6719824155562045</v>
       </c>
       <c r="F13">
-        <v>0.3940201356251554</v>
+        <v>0.3940387526515851</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3498,16 +3498,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>0.4596367067236493</v>
+        <v>0.4597280405583506</v>
       </c>
       <c r="D14">
-        <v>0.4596367067236493</v>
+        <v>0.4597280405583506</v>
       </c>
       <c r="E14">
-        <v>0.3251732068710921</v>
+        <v>0.3251577121039649</v>
       </c>
       <c r="F14">
-        <v>0.1705828811780532</v>
+        <v>0.1705703584369254</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3518,16 +3518,16 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>0.01160713716916446</v>
+        <v>0.011711847017988</v>
       </c>
       <c r="D15">
-        <v>0.01181293410465594</v>
+        <v>0.01180275900698438</v>
       </c>
       <c r="E15">
-        <v>0.01196397958873569</v>
+        <v>0.01196470318006637</v>
       </c>
       <c r="F15">
-        <v>0.007400924328058609</v>
+        <v>0.007471166272667233</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3538,16 +3538,16 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>-6.13737981945872</v>
+        <v>-6.138303296772046</v>
       </c>
       <c r="D16">
-        <v>6.13737981945872</v>
+        <v>6.138303296772046</v>
       </c>
       <c r="E16">
-        <v>4.295305312622003</v>
+        <v>4.295407371326724</v>
       </c>
       <c r="F16">
-        <v>2.551088406439677</v>
+        <v>2.551207717373831</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3558,16 +3558,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>0.05177543717975626</v>
+        <v>0.05177543717975559</v>
       </c>
       <c r="D17">
-        <v>0.09848676349159406</v>
+        <v>0.0984867634915934</v>
       </c>
       <c r="E17">
-        <v>0.1236166076712306</v>
+        <v>0.1236166076712302</v>
       </c>
       <c r="F17">
-        <v>0.05448429080624746</v>
+        <v>0.05448429080624723</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3578,16 +3578,16 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>2.092731588021479E-09</v>
+        <v>6.68930422997177E-07</v>
       </c>
       <c r="D18">
-        <v>2.092731588021479E-09</v>
+        <v>6.68930422997177E-07</v>
       </c>
       <c r="E18">
-        <v>2.650901312214706E-09</v>
+        <v>8.360706920592396E-07</v>
       </c>
       <c r="F18">
-        <v>1.510785536609284E-09</v>
+        <v>4.773365272448907E-07</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3598,16 +3598,16 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>0.7966360046545108</v>
+        <v>0.7966360046545116</v>
       </c>
       <c r="D19">
-        <v>0.7966360046545108</v>
+        <v>0.7966360046545116</v>
       </c>
       <c r="E19">
-        <v>0.5030833922835273</v>
+        <v>0.5030833922835281</v>
       </c>
       <c r="F19">
-        <v>0.3255564963872887</v>
+        <v>0.3255564963872882</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3618,16 +3618,16 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>0.8381941864053086</v>
+        <v>0.334246604904122</v>
       </c>
       <c r="D20">
-        <v>0.8381941864053086</v>
+        <v>0.334246604904122</v>
       </c>
       <c r="E20">
-        <v>0.6359737092456905</v>
+        <v>0.1942051239573773</v>
       </c>
       <c r="F20">
-        <v>0.3707345502603235</v>
+        <v>0.1118747376927496</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3638,16 +3638,16 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>5.166465324057956E-07</v>
+        <v>5.166465302242074E-07</v>
       </c>
       <c r="D21">
-        <v>5.166465324057956E-07</v>
+        <v>5.166465302242074E-07</v>
       </c>
       <c r="E21">
-        <v>5.999856493749556E-07</v>
+        <v>5.999856487330472E-07</v>
       </c>
       <c r="F21">
-        <v>3.440060118274824E-07</v>
+        <v>3.440060115514744E-07</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3658,16 +3658,16 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>-0.2047734591692729</v>
+        <v>-0.01692581412187022</v>
       </c>
       <c r="D22">
-        <v>0.2047734591692729</v>
+        <v>0.01692581412187022</v>
       </c>
       <c r="E22">
-        <v>0.3629122020110869</v>
+        <v>0.0264086390205082</v>
       </c>
       <c r="F22">
-        <v>0.1885112726627684</v>
+        <v>0.01404173422173682</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3678,16 +3678,16 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.080868893334809E-16</v>
+        <v>-6.661338147750939E-16</v>
       </c>
       <c r="D23">
-        <v>3.080868893334809E-16</v>
+        <v>6.661338147750939E-16</v>
       </c>
       <c r="E23">
-        <v>9.742562875300344E-16</v>
+        <v>2.106500081146021E-15</v>
       </c>
       <c r="F23">
-        <v>5.737836642546273E-16</v>
+        <v>1.28566431699626E-15</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3698,16 +3698,16 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>5.020219494867861E-05</v>
+        <v>2.49256230076822E-05</v>
       </c>
       <c r="D24">
-        <v>5.020219494867861E-05</v>
+        <v>2.49256230076822E-05</v>
       </c>
       <c r="E24">
-        <v>4.543440173737289E-05</v>
+        <v>2.945810750049548E-05</v>
       </c>
       <c r="F24">
-        <v>2.583944849651255E-05</v>
+        <v>1.791829168648217E-05</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3718,16 +3718,16 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>0.1041878584870452</v>
+        <v>0.1041878584870425</v>
       </c>
       <c r="D25">
-        <v>0.1041878584892451</v>
+        <v>0.1041878584892455</v>
       </c>
       <c r="E25">
-        <v>0.06138797062261891</v>
+        <v>0.06138797062262392</v>
       </c>
       <c r="F25">
-        <v>0.0355562420936275</v>
+        <v>0.03555624209362737</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3738,16 +3738,16 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>0.001008725905190233</v>
+        <v>0.0004835530585928727</v>
       </c>
       <c r="D26">
-        <v>0.001008725905190233</v>
+        <v>0.0004835530585928727</v>
       </c>
       <c r="E26">
-        <v>0.0009861198727375952</v>
+        <v>0.0004138915977722411</v>
       </c>
       <c r="F26">
-        <v>0.0006313089064494475</v>
+        <v>0.0002405393784584448</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3758,10 +3758,10 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>-68.98472969967</v>
+        <v>-68.98472969966997</v>
       </c>
       <c r="D27">
-        <v>68.98472969967</v>
+        <v>68.98472969966997</v>
       </c>
       <c r="E27">
         <v>16.02985320951447</v>
@@ -3778,16 +3778,16 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>-13.70440906511612</v>
+        <v>-13.70440906511613</v>
       </c>
       <c r="D28">
-        <v>13.70440906511612</v>
+        <v>13.70440906511613</v>
       </c>
       <c r="E28">
         <v>10.81047131387291</v>
       </c>
       <c r="F28">
-        <v>6.564681016339349</v>
+        <v>6.564681016339348</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3798,16 +3798,16 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>0.0165613208897744</v>
+        <v>0.003107990755515433</v>
       </c>
       <c r="D29">
-        <v>0.0165613208897744</v>
+        <v>0.003107990755515433</v>
       </c>
       <c r="E29">
-        <v>0.01412389261375598</v>
+        <v>0.002192609053278286</v>
       </c>
       <c r="F29">
-        <v>0.00819477286896246</v>
+        <v>0.001232631764819259</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3818,16 +3818,16 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.871357051035098</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>3.871357051035098</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>3.002924812963251</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1.705622911393459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3858,16 +3858,16 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>2.28127603451314</v>
+        <v>0.465157595793196</v>
       </c>
       <c r="D32">
-        <v>2.28127603451314</v>
+        <v>0.465157595793196</v>
       </c>
       <c r="E32">
-        <v>2.218007073106917</v>
+        <v>0.2952567258516274</v>
       </c>
       <c r="F32">
-        <v>1.426905832697043</v>
+        <v>0.1930636731893922</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3878,16 +3878,16 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>0.01775250669892266</v>
+        <v>0.02060307951060638</v>
       </c>
       <c r="D33">
-        <v>0.02081633799837162</v>
+        <v>0.02191797864738963</v>
       </c>
       <c r="E33">
-        <v>0.02536083619458234</v>
+        <v>0.0272705544263639</v>
       </c>
       <c r="F33">
-        <v>0.01505459372298108</v>
+        <v>0.01742518198629088</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3898,16 +3898,16 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>0.006848148187126635</v>
+        <v>0.006848833272256825</v>
       </c>
       <c r="D34">
-        <v>0.006848148187126635</v>
+        <v>0.006848833272256825</v>
       </c>
       <c r="E34">
-        <v>0.009096210891414869</v>
+        <v>0.009091863551381368</v>
       </c>
       <c r="F34">
-        <v>0.005205868208570358</v>
+        <v>0.005197251569021919</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3958,16 +3958,16 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>1.117130896466448</v>
+        <v>0.2105829106093404</v>
       </c>
       <c r="D37">
-        <v>1.117130896466448</v>
+        <v>0.2105829106093404</v>
       </c>
       <c r="E37">
-        <v>0.8396807829246536</v>
+        <v>0.1259979447732046</v>
       </c>
       <c r="F37">
-        <v>0.5101869975715791</v>
+        <v>0.07996062110606286</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4018,16 +4018,16 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>8.705221786143037</v>
+        <v>8.7016433348003</v>
       </c>
       <c r="D40">
-        <v>8.705221786143037</v>
+        <v>8.7016433348003</v>
       </c>
       <c r="E40">
-        <v>5.883901383089446</v>
+        <v>5.881672541684869</v>
       </c>
       <c r="F40">
-        <v>3.558380719954821</v>
+        <v>3.556755907149663</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4078,16 +4078,16 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>-3.799236687186968</v>
+        <v>0.06630460623922907</v>
       </c>
       <c r="D43">
-        <v>3.799236687186968</v>
+        <v>0.09260396935995885</v>
       </c>
       <c r="E43">
-        <v>4.851206701755585</v>
+        <v>0.09233615107056511</v>
       </c>
       <c r="F43">
-        <v>2.447861081312561</v>
+        <v>0.03717133605054122</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4098,16 +4098,16 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>0.8760294443605779</v>
+        <v>0.8760294443605792</v>
       </c>
       <c r="D44">
-        <v>0.8760294443605779</v>
+        <v>0.8760294443605792</v>
       </c>
       <c r="E44">
-        <v>0.3907729479794478</v>
+        <v>0.3907729479794508</v>
       </c>
       <c r="F44">
-        <v>0.2364320748649658</v>
+        <v>0.236432074864967</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4198,16 +4198,16 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>0.1336411119432563</v>
+        <v>0.1336411119432573</v>
       </c>
       <c r="D49">
-        <v>0.1336411119432563</v>
+        <v>0.1336411119432573</v>
       </c>
       <c r="E49">
-        <v>0.1247951403641333</v>
+        <v>0.1247951403641336</v>
       </c>
       <c r="F49">
-        <v>0.07715000830914125</v>
+        <v>0.07715000830914129</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4218,16 +4218,16 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>0.005480714382862661</v>
+        <v>0.005480714382860063</v>
       </c>
       <c r="D50">
-        <v>0.005480714382862661</v>
+        <v>0.005480714382860063</v>
       </c>
       <c r="E50">
-        <v>0.004731432395308854</v>
+        <v>0.00473143239530445</v>
       </c>
       <c r="F50">
-        <v>0.003120215130235669</v>
+        <v>0.003120215130233156</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4238,16 +4238,16 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>0.1189584394915414</v>
+        <v>0.0008497031277160172</v>
       </c>
       <c r="D51">
-        <v>0.1189584394915414</v>
+        <v>0.0008497031277160172</v>
       </c>
       <c r="E51">
-        <v>0.1724350572025189</v>
+        <v>0.001179710211652519</v>
       </c>
       <c r="F51">
-        <v>0.1104859613453632</v>
+        <v>0.000719697178434996</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4258,16 +4258,16 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>-0.3066785834536051</v>
+        <v>-0.001311225097495639</v>
       </c>
       <c r="D52">
-        <v>0.3066785834536051</v>
+        <v>0.001311225097495639</v>
       </c>
       <c r="E52">
-        <v>0.280784328397895</v>
+        <v>0.00164008337376854</v>
       </c>
       <c r="F52">
-        <v>0.1656009186833292</v>
+        <v>0.0009466518241291538</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4278,16 +4278,16 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>1.947594736627336</v>
+        <v>1.821630090362822</v>
       </c>
       <c r="D53">
-        <v>1.947594736627336</v>
+        <v>1.821630090362822</v>
       </c>
       <c r="E53">
-        <v>1.366847079538656</v>
+        <v>1.331148430423539</v>
       </c>
       <c r="F53">
-        <v>0.8366215418439165</v>
+        <v>0.8201940226294756</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4298,16 +4298,16 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>2.463127207229269</v>
+        <v>2.229108558644751</v>
       </c>
       <c r="D54">
-        <v>2.741370922398185</v>
+        <v>2.57620031596554</v>
       </c>
       <c r="E54">
-        <v>2.393592426200995</v>
+        <v>2.349112323131875</v>
       </c>
       <c r="F54">
-        <v>1.07938130482514</v>
+        <v>1.025538635263339</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4318,16 +4318,16 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>0.09628387335145497</v>
+        <v>0.09642669494839536</v>
       </c>
       <c r="D55">
-        <v>0.2363516227797992</v>
+        <v>0.2363695952443909</v>
       </c>
       <c r="E55">
-        <v>0.2682895223553831</v>
+        <v>0.2682984430647802</v>
       </c>
       <c r="F55">
-        <v>0.07968704219346848</v>
+        <v>0.07974470432906239</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4338,16 +4338,16 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>8.447035318344311</v>
+        <v>2.526478338363491</v>
       </c>
       <c r="D56">
-        <v>8.447035318344311</v>
+        <v>2.526478338363491</v>
       </c>
       <c r="E56">
-        <v>4.979869049402699</v>
+        <v>1.520801914022753</v>
       </c>
       <c r="F56">
-        <v>2.983374099042277</v>
+        <v>0.7595734018364939</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4358,16 +4358,16 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>2.342347215919619</v>
+        <v>2.342347215919622</v>
       </c>
       <c r="D57">
-        <v>2.342347215919619</v>
+        <v>2.342347215919622</v>
       </c>
       <c r="E57">
-        <v>2.108614998796392</v>
+        <v>2.108614998796396</v>
       </c>
       <c r="F57">
-        <v>1.200234467894463</v>
+        <v>1.200234467894465</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4378,16 +4378,16 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>2.23624196581184</v>
+        <v>2.236241965811841</v>
       </c>
       <c r="D58">
-        <v>2.23624196581184</v>
+        <v>2.236241965811841</v>
       </c>
       <c r="E58">
-        <v>1.348372456174648</v>
+        <v>1.348372456174645</v>
       </c>
       <c r="F58">
-        <v>0.7376440594599326</v>
+        <v>0.7376440594599307</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4398,16 +4398,16 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.0929409341606</v>
+        <v>2.092940934160597</v>
       </c>
       <c r="D59">
-        <v>2.0929409341606</v>
+        <v>2.092940934160597</v>
       </c>
       <c r="E59">
-        <v>1.571728147211648</v>
+        <v>1.571728147211652</v>
       </c>
       <c r="F59">
-        <v>0.9514660047367827</v>
+        <v>0.9514660047367859</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4458,16 +4458,16 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>0.00360408487938898</v>
+        <v>0.003604084879387015</v>
       </c>
       <c r="D62">
-        <v>0.00360408487938898</v>
+        <v>0.003604084879387015</v>
       </c>
       <c r="E62">
-        <v>5.672131573177652E-05</v>
+        <v>5.672131573345853E-05</v>
       </c>
       <c r="F62">
-        <v>3.648083916487201E-05</v>
+        <v>3.64808391662094E-05</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4498,16 +4498,16 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>0.09895950732454808</v>
+        <v>0.09895950732454553</v>
       </c>
       <c r="D64">
-        <v>0.09895950732454808</v>
+        <v>0.09895950732454553</v>
       </c>
       <c r="E64">
-        <v>0.08094106789009393</v>
+        <v>0.08094106789009207</v>
       </c>
       <c r="F64">
-        <v>0.04619222027107999</v>
+        <v>0.04619222027107875</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4518,16 +4518,16 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>0.06408533817644421</v>
+        <v>0.06408533817644609</v>
       </c>
       <c r="D65">
-        <v>0.06408533817644421</v>
+        <v>0.06408533817644609</v>
       </c>
       <c r="E65">
-        <v>0.1092453516260574</v>
+        <v>0.1092453516260573</v>
       </c>
       <c r="F65">
-        <v>0.06222057521506291</v>
+        <v>0.06222057521506342</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4538,16 +4538,16 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>0.6772511312195622</v>
+        <v>0.6772511312195615</v>
       </c>
       <c r="D66">
-        <v>0.6772511312195622</v>
+        <v>0.6772511312195615</v>
       </c>
       <c r="E66">
-        <v>0.4224424572639291</v>
+        <v>0.422442457263928</v>
       </c>
       <c r="F66">
-        <v>0.2386043714758521</v>
+        <v>0.2386043714758518</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4558,16 +4558,16 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>0.2644314607475284</v>
+        <v>0.2644314607475293</v>
       </c>
       <c r="D67">
-        <v>0.2644314607475284</v>
+        <v>0.2644314607475293</v>
       </c>
       <c r="E67">
-        <v>0.1331321659955704</v>
+        <v>0.1331321659955745</v>
       </c>
       <c r="F67">
-        <v>0.08300849533658437</v>
+        <v>0.08300849533658695</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4578,16 +4578,16 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>1.263722322497005</v>
+        <v>1.263722322497001</v>
       </c>
       <c r="D68">
-        <v>1.263722322497005</v>
+        <v>1.263722322497001</v>
       </c>
       <c r="E68">
-        <v>0.2113503291316418</v>
+        <v>0.2113503291316389</v>
       </c>
       <c r="F68">
-        <v>0.1234970294053741</v>
+        <v>0.1234970294053721</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4598,16 +4598,16 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>0.1336413820726925</v>
+        <v>0.1336413820726908</v>
       </c>
       <c r="D69">
-        <v>0.1336413820726925</v>
+        <v>0.1336413820726908</v>
       </c>
       <c r="E69">
-        <v>0.1728154746241461</v>
+        <v>0.1728154746241468</v>
       </c>
       <c r="F69">
-        <v>0.1088037152886128</v>
+        <v>0.1088037152886133</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4618,16 +4618,16 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>0.009099197629265967</v>
+        <v>0.009099197629267674</v>
       </c>
       <c r="D70">
-        <v>0.009099197629265967</v>
+        <v>0.009099197629267674</v>
       </c>
       <c r="E70">
-        <v>0.0001171667026379159</v>
+        <v>0.0001171667026345075</v>
       </c>
       <c r="F70">
-        <v>6.251782009528728E-05</v>
+        <v>6.251782009321005E-05</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4638,16 +4638,16 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>-0.1741985416593685</v>
+        <v>-0.1741985416593667</v>
       </c>
       <c r="D71">
-        <v>0.1741985416593685</v>
+        <v>0.1741985416593667</v>
       </c>
       <c r="E71">
-        <v>0.07997905494927668</v>
+        <v>0.07997905494927851</v>
       </c>
       <c r="F71">
-        <v>0.04565397301976523</v>
+        <v>0.04565397301976643</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4658,16 +4658,16 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>1.304102122776666</v>
+        <v>1.303393597419841</v>
       </c>
       <c r="D72">
-        <v>1.304102122776666</v>
+        <v>1.303393597419841</v>
       </c>
       <c r="E72">
-        <v>0.913899633771223</v>
+        <v>0.9136478692200543</v>
       </c>
       <c r="F72">
-        <v>0.5928503612831844</v>
+        <v>0.5926962728304523</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4678,16 +4678,16 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>1.685715924732043</v>
+        <v>1.684602346151908</v>
       </c>
       <c r="D73">
-        <v>1.685715924732043</v>
+        <v>1.684602346151908</v>
       </c>
       <c r="E73">
-        <v>2.204546799305258</v>
+        <v>2.202461190654405</v>
       </c>
       <c r="F73">
-        <v>1.103568613432081</v>
+        <v>1.102329274609198</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4698,16 +4698,16 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>9.85360652350565</v>
+        <v>9.837385694290521</v>
       </c>
       <c r="D74">
-        <v>9.85360652350565</v>
+        <v>9.837385694290521</v>
       </c>
       <c r="E74">
-        <v>6.025661970702001</v>
+        <v>6.017295204440122</v>
       </c>
       <c r="F74">
-        <v>3.600280930541809</v>
+        <v>3.594243585660424</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4718,16 +4718,16 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>0.6952958283706395</v>
+        <v>0.6952958283706379</v>
       </c>
       <c r="D75">
-        <v>0.6952958283706395</v>
+        <v>0.6952958283706379</v>
       </c>
       <c r="E75">
-        <v>0.37262087471899</v>
+        <v>0.3726208747189887</v>
       </c>
       <c r="F75">
-        <v>0.2101072393288803</v>
+        <v>0.2101072393288793</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4738,16 +4738,16 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>1.060266524935182</v>
+        <v>1.060266524935183</v>
       </c>
       <c r="D76">
-        <v>1.060266524935182</v>
+        <v>1.060266524935183</v>
       </c>
       <c r="E76">
         <v>0.7878820713407977</v>
       </c>
       <c r="F76">
-        <v>0.4585063460430968</v>
+        <v>0.4585063460430961</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4758,16 +4758,16 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>0.005829278956731798</v>
+        <v>0.005829278956735262</v>
       </c>
       <c r="D77">
-        <v>0.005829278956731798</v>
+        <v>0.005829278956735262</v>
       </c>
       <c r="E77">
-        <v>0.001295733093950657</v>
+        <v>0.001295733093953104</v>
       </c>
       <c r="F77">
-        <v>0.0006846355120826211</v>
+        <v>0.0006846355120842644</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4778,16 +4778,16 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>0.01421812648311933</v>
+        <v>0.01421812648311827</v>
       </c>
       <c r="D78">
-        <v>0.01421812648311933</v>
+        <v>0.01421812648311827</v>
       </c>
       <c r="E78">
-        <v>0.002375284047111649</v>
+        <v>0.002375284047111872</v>
       </c>
       <c r="F78">
-        <v>0.001404089899403537</v>
+        <v>0.001404089899403398</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4798,16 +4798,16 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>0.4706813799770965</v>
+        <v>0.4706813799770975</v>
       </c>
       <c r="D79">
-        <v>0.4706813799770965</v>
+        <v>0.4706813799770975</v>
       </c>
       <c r="E79">
-        <v>0.1007575122071738</v>
+        <v>0.1007575122071722</v>
       </c>
       <c r="F79">
-        <v>0.06666620954586619</v>
+        <v>0.06666620954586482</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4818,16 +4818,16 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>0.002505133562752016</v>
+        <v>0.002505133562754377</v>
       </c>
       <c r="D80">
-        <v>0.002505133562752016</v>
+        <v>0.002505133562754377</v>
       </c>
       <c r="E80">
-        <v>0.0009207773631186854</v>
+        <v>0.0009207773631175967</v>
       </c>
       <c r="F80">
-        <v>0.0005091111968751669</v>
+        <v>0.0005091111968743911</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4838,16 +4838,16 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>0.009492984557133355</v>
+        <v>0.009492984557135885</v>
       </c>
       <c r="D81">
-        <v>0.009492984557133355</v>
+        <v>0.009492984557135885</v>
       </c>
       <c r="E81">
-        <v>0.001489943159933095</v>
+        <v>0.001489943159932205</v>
       </c>
       <c r="F81">
-        <v>0.0009578643374383375</v>
+        <v>0.0009578643374379949</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4878,16 +4878,16 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>0.02330217587432275</v>
+        <v>0.02330217587432409</v>
       </c>
       <c r="D83">
-        <v>0.02330217587432275</v>
+        <v>0.02330217587432409</v>
       </c>
       <c r="E83">
-        <v>0.01346848706422319</v>
+        <v>0.01346848706422256</v>
       </c>
       <c r="F83">
-        <v>0.00776010598547115</v>
+        <v>0.007760105985470686</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4898,16 +4898,16 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>0.02511420247138766</v>
+        <v>0.02511420247138377</v>
       </c>
       <c r="D84">
-        <v>0.02511420247138766</v>
+        <v>0.02511420247138377</v>
       </c>
       <c r="E84">
-        <v>0.01071472979061722</v>
+        <v>0.01071472979061571</v>
       </c>
       <c r="F84">
-        <v>0.006409991097387245</v>
+        <v>0.006409991097387011</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4918,16 +4918,16 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>1.226439480529421</v>
+        <v>1.226439480529426</v>
       </c>
       <c r="D85">
-        <v>1.226439480529421</v>
+        <v>1.226439480529426</v>
       </c>
       <c r="E85">
-        <v>0.5304128030806256</v>
+        <v>0.5304128030806167</v>
       </c>
       <c r="F85">
-        <v>0.3009350281032365</v>
+        <v>0.3009350281032314</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4938,16 +4938,16 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>0.1983843510786198</v>
+        <v>0.19838435107862</v>
       </c>
       <c r="D86">
-        <v>0.1983843510786198</v>
+        <v>0.19838435107862</v>
       </c>
       <c r="E86">
-        <v>0.08118078556730847</v>
+        <v>0.08118078556730872</v>
       </c>
       <c r="F86">
-        <v>0.04925445610464257</v>
+        <v>0.04925445610464298</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4978,16 +4978,16 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>0.1239711591864626</v>
+        <v>0.123971159186463</v>
       </c>
       <c r="D88">
-        <v>0.1239711591864626</v>
+        <v>0.123971159186463</v>
       </c>
       <c r="E88">
-        <v>0.1156201040023044</v>
+        <v>0.1156201040023058</v>
       </c>
       <c r="F88">
-        <v>0.06962257564939603</v>
+        <v>0.06962257564939685</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4998,16 +4998,16 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.168306232154902</v>
+        <v>4.168306232154903</v>
       </c>
       <c r="D89">
-        <v>4.168306232154902</v>
+        <v>4.168306232154903</v>
       </c>
       <c r="E89">
-        <v>3.262138215416237</v>
+        <v>3.262138215416238</v>
       </c>
       <c r="F89">
-        <v>1.855010256641548</v>
+        <v>1.855010256641549</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5018,16 +5018,16 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>2.829480357944942</v>
+        <v>2.82948035794494</v>
       </c>
       <c r="D90">
-        <v>2.829480357944942</v>
+        <v>2.82948035794494</v>
       </c>
       <c r="E90">
-        <v>2.724770814785651</v>
+        <v>2.724770814785647</v>
       </c>
       <c r="F90">
-        <v>1.679214515587982</v>
+        <v>1.679214515587979</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5038,16 +5038,16 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>0.009890544583675465</v>
+        <v>0.009890544583678895</v>
       </c>
       <c r="D91">
-        <v>0.009890544583675465</v>
+        <v>0.009890544583678895</v>
       </c>
       <c r="E91">
-        <v>0.009635380934422408</v>
+        <v>0.009635380934425668</v>
       </c>
       <c r="F91">
-        <v>0.005962358385537326</v>
+        <v>0.005962358385539249</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5058,16 +5058,16 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>0.04031086581002728</v>
+        <v>0.04031086581002613</v>
       </c>
       <c r="D92">
-        <v>0.04031086581002728</v>
+        <v>0.04031086581002613</v>
       </c>
       <c r="E92">
-        <v>0.03058036063081806</v>
+        <v>0.03058036063081797</v>
       </c>
       <c r="F92">
-        <v>0.0171909021791675</v>
+        <v>0.01719090217916815</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5078,16 +5078,16 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>0.04456812351416746</v>
+        <v>0.0445681235141671</v>
       </c>
       <c r="D93">
-        <v>0.04456812351416746</v>
+        <v>0.0445681235141671</v>
       </c>
       <c r="E93">
-        <v>0.04154229887911794</v>
+        <v>0.04154229887911633</v>
       </c>
       <c r="F93">
-        <v>0.02377320661755637</v>
+        <v>0.0237732066175553</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5218,16 +5218,16 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>3.621495027430274</v>
+        <v>3.620708104744975</v>
       </c>
       <c r="D100">
-        <v>3.621495027430274</v>
+        <v>3.620708104744975</v>
       </c>
       <c r="E100">
-        <v>3.498202740005591</v>
+        <v>3.498393812132187</v>
       </c>
       <c r="F100">
-        <v>2.265010418954041</v>
+        <v>2.265120353083545</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5238,16 +5238,16 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>0.1454095738043042</v>
+        <v>0.1454095738043039</v>
       </c>
       <c r="D101">
-        <v>0.1454095738043042</v>
+        <v>0.1454095738043039</v>
       </c>
       <c r="E101">
-        <v>0.07877059196111419</v>
+        <v>0.07877059196111234</v>
       </c>
       <c r="F101">
-        <v>0.04659923487390481</v>
+        <v>0.04659923487390342</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5258,16 +5258,16 @@
         <v>105</v>
       </c>
       <c r="C102">
-        <v>0.001876203010073985</v>
+        <v>0.001876203010074278</v>
       </c>
       <c r="D102">
-        <v>0.001876203010073985</v>
+        <v>0.001876203010074278</v>
       </c>
       <c r="E102">
-        <v>7.855484983072191E-15</v>
+        <v>5.798717432559782E-15</v>
       </c>
       <c r="F102">
-        <v>4.515896437384199E-15</v>
+        <v>3.675625121396743E-15</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -5284,10 +5284,10 @@
         <v>17.17564568990552</v>
       </c>
       <c r="E103">
-        <v>2.278255137767024</v>
+        <v>2.278255137767022</v>
       </c>
       <c r="F103">
-        <v>1.256346762097319</v>
+        <v>1.256346762097317</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -5298,16 +5298,16 @@
         <v>107</v>
       </c>
       <c r="C104">
-        <v>-0.1677889928332623</v>
+        <v>-0.1677889928332627</v>
       </c>
       <c r="D104">
-        <v>0.1677889928332623</v>
+        <v>0.1677889928332627</v>
       </c>
       <c r="E104">
-        <v>0.08706798185814911</v>
+        <v>0.08706798185815019</v>
       </c>
       <c r="F104">
-        <v>0.04991982432718567</v>
+        <v>0.04991982432718622</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -5318,16 +5318,16 @@
         <v>108</v>
       </c>
       <c r="C105">
-        <v>-0.688416020962524</v>
+        <v>-0.6884160209625285</v>
       </c>
       <c r="D105">
-        <v>0.688416020962524</v>
+        <v>0.6884160209625285</v>
       </c>
       <c r="E105">
-        <v>0.09998396450802331</v>
+        <v>0.09998396450802415</v>
       </c>
       <c r="F105">
-        <v>0.05230573590177844</v>
+        <v>0.05230573590177898</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -5338,16 +5338,16 @@
         <v>109</v>
       </c>
       <c r="C106">
-        <v>0.0004048902154128342</v>
+        <v>0.0004048902154079881</v>
       </c>
       <c r="D106">
-        <v>0.0004048902154128342</v>
+        <v>0.0004048902154079881</v>
       </c>
       <c r="E106">
-        <v>5.503840364746916E-15</v>
+        <v>6.853435597108644E-15</v>
       </c>
       <c r="F106">
-        <v>3.38439928619379E-15</v>
+        <v>4.428802955668047E-15</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -5358,16 +5358,16 @@
         <v>110</v>
       </c>
       <c r="C107">
-        <v>4.022433059888512</v>
+        <v>4.022433059888513</v>
       </c>
       <c r="D107">
-        <v>4.022433059888512</v>
+        <v>4.022433059888513</v>
       </c>
       <c r="E107">
         <v>2.673960578910162</v>
       </c>
       <c r="F107">
-        <v>1.762199455779539</v>
+        <v>1.76219945577954</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -5378,16 +5378,16 @@
         <v>111</v>
       </c>
       <c r="C108">
-        <v>1.004753056082153</v>
+        <v>1.004753056082156</v>
       </c>
       <c r="D108">
-        <v>1.004753056082153</v>
+        <v>1.004753056082156</v>
       </c>
       <c r="E108">
-        <v>0.6561873286114362</v>
+        <v>0.656187328611438</v>
       </c>
       <c r="F108">
-        <v>0.3418532715121494</v>
+        <v>0.3418532715121504</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -5398,16 +5398,16 @@
         <v>112</v>
       </c>
       <c r="C109">
-        <v>0.2786706700396591</v>
+        <v>0.2786706700396597</v>
       </c>
       <c r="D109">
-        <v>0.2786706700396591</v>
+        <v>0.2786706700396597</v>
       </c>
       <c r="E109">
-        <v>0.08311608002813245</v>
+        <v>0.08311608002813416</v>
       </c>
       <c r="F109">
-        <v>0.04379498831137627</v>
+        <v>0.04379498831137683</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -5418,16 +5418,16 @@
         <v>113</v>
       </c>
       <c r="C110">
-        <v>0.0584741742616786</v>
+        <v>0.05847417426167967</v>
       </c>
       <c r="D110">
-        <v>0.0584741742616786</v>
+        <v>0.05847417426167967</v>
       </c>
       <c r="E110">
-        <v>0.02122770915034723</v>
+        <v>0.02122770915034746</v>
       </c>
       <c r="F110">
-        <v>0.01137215769936213</v>
+        <v>0.01137215769936192</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -5438,16 +5438,16 @@
         <v>114</v>
       </c>
       <c r="C111">
-        <v>0.005995761854413528</v>
+        <v>0.005995761854417377</v>
       </c>
       <c r="D111">
-        <v>0.005995761854413528</v>
+        <v>0.005995761854417377</v>
       </c>
       <c r="E111">
-        <v>0.005632835468140149</v>
+        <v>0.0056328354681491</v>
       </c>
       <c r="F111">
-        <v>0.003042800236086698</v>
+        <v>0.003042800236091937</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -5458,16 +5458,16 @@
         <v>115</v>
       </c>
       <c r="C112">
-        <v>0.03589687334166793</v>
+        <v>0.03589687334166394</v>
       </c>
       <c r="D112">
-        <v>0.03589687334166793</v>
+        <v>0.03589687334166394</v>
       </c>
       <c r="E112">
-        <v>0.0291299257939198</v>
+        <v>0.02912992579391793</v>
       </c>
       <c r="F112">
-        <v>0.01707884599623005</v>
+        <v>0.01707884599622921</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -5498,16 +5498,16 @@
         <v>117</v>
       </c>
       <c r="C114">
-        <v>4.124178879083308</v>
+        <v>4.124178879083305</v>
       </c>
       <c r="D114">
-        <v>4.124178879083308</v>
+        <v>4.124178879083305</v>
       </c>
       <c r="E114">
-        <v>3.488598745645827</v>
+        <v>3.488598745645821</v>
       </c>
       <c r="F114">
-        <v>2.178987543651207</v>
+        <v>2.178987543651203</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -5518,16 +5518,16 @@
         <v>118</v>
       </c>
       <c r="C115">
-        <v>0.5308647617077364</v>
+        <v>0.5308647617077368</v>
       </c>
       <c r="D115">
-        <v>0.5308647617077364</v>
+        <v>0.5308647617077368</v>
       </c>
       <c r="E115">
-        <v>0.3979717982038151</v>
+        <v>0.3979717982038158</v>
       </c>
       <c r="F115">
-        <v>0.2457764641212647</v>
+        <v>0.2457764641212656</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -5538,16 +5538,16 @@
         <v>119</v>
       </c>
       <c r="C116">
-        <v>0.134928755559288</v>
+        <v>0.1349287555592859</v>
       </c>
       <c r="D116">
-        <v>0.134928755559288</v>
+        <v>0.1349287555592859</v>
       </c>
       <c r="E116">
-        <v>0.06736935922613509</v>
+        <v>0.0673693592261338</v>
       </c>
       <c r="F116">
-        <v>0.04164055070451032</v>
+        <v>0.04164055070450915</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -5558,16 +5558,16 @@
         <v>120</v>
       </c>
       <c r="C117">
-        <v>8.582867484552297</v>
+        <v>2.824816698967042</v>
       </c>
       <c r="D117">
-        <v>8.582867484552297</v>
+        <v>2.824816698967042</v>
       </c>
       <c r="E117">
-        <v>4.677834685438441</v>
+        <v>1.487001561349482</v>
       </c>
       <c r="F117">
-        <v>3.169560825564274</v>
+        <v>0.9457037622423182</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -5728,16 +5728,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1.459454568863983E-08</v>
+        <v>2.149881200189108E-06</v>
       </c>
       <c r="D2">
-        <v>9.06275946122026E-08</v>
+        <v>2.149881200189108E-06</v>
       </c>
       <c r="E2">
-        <v>1.200932022870195E-07</v>
+        <v>2.171355938187058E-06</v>
       </c>
       <c r="F2">
-        <v>4.758745347759622E-08</v>
+        <v>1.249875477767643E-06</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5748,16 +5748,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>-1.240823750889297E-06</v>
+        <v>-2.585708352831339E-06</v>
       </c>
       <c r="D3">
-        <v>1.252322935077488E-06</v>
+        <v>2.923987815289797E-06</v>
       </c>
       <c r="E3">
-        <v>1.518351113284534E-06</v>
+        <v>3.031233102681396E-06</v>
       </c>
       <c r="F3">
-        <v>8.114719883915536E-07</v>
+        <v>1.438295710686492E-06</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5768,16 +5768,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>-2.047087778789258E-07</v>
+        <v>-5.486423284850606E-07</v>
       </c>
       <c r="D4">
-        <v>2.050789648766482E-07</v>
+        <v>5.508494817452192E-07</v>
       </c>
       <c r="E4">
-        <v>1.358125123153703E-07</v>
+        <v>3.787173101488354E-07</v>
       </c>
       <c r="F4">
-        <v>7.935010856409152E-08</v>
+        <v>2.264191284966044E-07</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5788,16 +5788,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>-2.398198505582094E-06</v>
+        <v>-7.300676670665696E-06</v>
       </c>
       <c r="D5">
-        <v>2.398198505582094E-06</v>
+        <v>7.300676670665696E-06</v>
       </c>
       <c r="E5">
-        <v>2.28820283924268E-06</v>
+        <v>5.615797106201817E-06</v>
       </c>
       <c r="F5">
-        <v>1.16890239346761E-06</v>
+        <v>3.185643908641038E-06</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5808,16 +5808,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4.718097087685891E-07</v>
+        <v>1.114882328888955E-05</v>
       </c>
       <c r="D6">
-        <v>7.120243433356154E-07</v>
+        <v>1.12443537214707E-05</v>
       </c>
       <c r="E6">
-        <v>7.960825597433091E-07</v>
+        <v>1.223065635925933E-05</v>
       </c>
       <c r="F6">
-        <v>3.244167043030808E-07</v>
+        <v>7.374795255002702E-06</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5828,16 +5828,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>-3.327011820292158E-07</v>
+        <v>2.233469560614098E-06</v>
       </c>
       <c r="D7">
-        <v>4.928813811838628E-07</v>
+        <v>2.233469560614098E-06</v>
       </c>
       <c r="E7">
-        <v>1.147582713298536E-06</v>
+        <v>3.097878256620073E-06</v>
       </c>
       <c r="F7">
-        <v>6.029912009716385E-07</v>
+        <v>1.66757508977203E-06</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5848,16 +5848,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>5.540273715631816E-08</v>
+        <v>1.936008063155303E-06</v>
       </c>
       <c r="D8">
-        <v>1.351909500096893E-07</v>
+        <v>1.936008063155303E-06</v>
       </c>
       <c r="E8">
-        <v>1.592729605372594E-07</v>
+        <v>1.570150313600806E-06</v>
       </c>
       <c r="F8">
-        <v>5.717113757422425E-08</v>
+        <v>9.279273129539338E-07</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5868,16 +5868,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>-7.551549341677788E-08</v>
+        <v>-1.514384873418928E-07</v>
       </c>
       <c r="D9">
-        <v>7.551549341677788E-08</v>
+        <v>1.514384873418928E-07</v>
       </c>
       <c r="E9">
-        <v>7.615347879969796E-08</v>
+        <v>1.179695210222935E-07</v>
       </c>
       <c r="F9">
-        <v>3.562636782512938E-08</v>
+        <v>6.251838561825877E-08</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5888,16 +5888,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>1.912058927855398E-09</v>
+        <v>3.837926131899927E-08</v>
       </c>
       <c r="D10">
-        <v>1.912058927855398E-09</v>
+        <v>3.837926131899927E-08</v>
       </c>
       <c r="E10">
-        <v>1.710102060312873E-09</v>
+        <v>2.431628803470287E-08</v>
       </c>
       <c r="F10">
-        <v>1.036818435310773E-09</v>
+        <v>1.20490068376553E-08</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5908,16 +5908,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>1.620358184628579E-07</v>
+        <v>3.452848910340256E-06</v>
       </c>
       <c r="D11">
-        <v>1.713066836217525E-07</v>
+        <v>3.452848910340256E-06</v>
       </c>
       <c r="E11">
-        <v>3.348934958069338E-07</v>
+        <v>2.926170082741925E-06</v>
       </c>
       <c r="F11">
-        <v>1.920208707804958E-07</v>
+        <v>1.74905607249996E-06</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5928,16 +5928,16 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>1.249000902703301E-16</v>
+        <v>5.828670879282072E-17</v>
       </c>
       <c r="D12">
-        <v>1.748601263784622E-16</v>
+        <v>7.494005416219807E-17</v>
       </c>
       <c r="E12">
-        <v>1.851527828850887E-16</v>
+        <v>1.180835839452868E-16</v>
       </c>
       <c r="F12">
-        <v>7.326036583861984E-17</v>
+        <v>6.277221192476235E-17</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5948,16 +5948,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>-5.229282587532191E-07</v>
+        <v>1.343155474148594E-05</v>
       </c>
       <c r="D13">
-        <v>9.50601833574205E-07</v>
+        <v>1.343155474148594E-05</v>
       </c>
       <c r="E13">
-        <v>1.679741053145076E-06</v>
+        <v>1.10013816609512E-05</v>
       </c>
       <c r="F13">
-        <v>9.043805473718786E-07</v>
+        <v>5.975924326380413E-06</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5968,16 +5968,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>-5.163515908263028E-07</v>
+        <v>-5.291222221479041E-06</v>
       </c>
       <c r="D14">
-        <v>5.163515908263028E-07</v>
+        <v>5.291222221479041E-06</v>
       </c>
       <c r="E14">
-        <v>5.13842431721559E-07</v>
+        <v>4.246529261210182E-06</v>
       </c>
       <c r="F14">
-        <v>2.804691507679067E-07</v>
+        <v>2.495133133058558E-06</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5988,16 +5988,16 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>-8.384039736131222E-07</v>
+        <v>-1.155146948657315E-05</v>
       </c>
       <c r="D15">
-        <v>8.384039736131222E-07</v>
+        <v>1.155146948657315E-05</v>
       </c>
       <c r="E15">
-        <v>7.47701653273582E-07</v>
+        <v>7.063924104408824E-06</v>
       </c>
       <c r="F15">
-        <v>4.20630719418493E-07</v>
+        <v>4.120652166279731E-06</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6008,16 +6008,16 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>0.1055321030085526</v>
+        <v>0.1053652155318271</v>
       </c>
       <c r="D16">
-        <v>0.1055321030085526</v>
+        <v>0.1053652155318271</v>
       </c>
       <c r="E16">
-        <v>0.01195191038810759</v>
+        <v>0.01194984729717719</v>
       </c>
       <c r="F16">
-        <v>0.006918086827681318</v>
+        <v>0.006921690967626338</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6028,16 +6028,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>-3.876254910634147E-07</v>
+        <v>-3.876254910800681E-07</v>
       </c>
       <c r="D17">
-        <v>4.359975544016015E-07</v>
+        <v>4.359975543849482E-07</v>
       </c>
       <c r="E17">
-        <v>6.123082795318859E-07</v>
+        <v>6.123082795171566E-07</v>
       </c>
       <c r="F17">
-        <v>2.77695157349131E-07</v>
+        <v>2.776951573578353E-07</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6048,16 +6048,16 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>2.597576986840267E-10</v>
+        <v>1.153817490051612E-07</v>
       </c>
       <c r="D18">
-        <v>2.597576986840267E-10</v>
+        <v>1.153817490051612E-07</v>
       </c>
       <c r="E18">
-        <v>3.183161881278686E-10</v>
+        <v>1.812382974255607E-07</v>
       </c>
       <c r="F18">
-        <v>1.784394110581866E-10</v>
+        <v>9.65925270379183E-08</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6068,16 +6068,16 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>1.548832313679194E-05</v>
+        <v>1.548832313678361E-05</v>
       </c>
       <c r="D19">
-        <v>1.548832313679194E-05</v>
+        <v>1.548832313678361E-05</v>
       </c>
       <c r="E19">
-        <v>2.668239591259726E-05</v>
+        <v>2.668239591259302E-05</v>
       </c>
       <c r="F19">
-        <v>1.748934118991085E-05</v>
+        <v>1.748934118990222E-05</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6088,16 +6088,16 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>-5.149135140086747E-05</v>
+        <v>-0.00071867884374823</v>
       </c>
       <c r="D20">
-        <v>5.149135140086747E-05</v>
+        <v>0.00071867884374823</v>
       </c>
       <c r="E20">
-        <v>4.138549729539734E-05</v>
+        <v>0.000501234145448944</v>
       </c>
       <c r="F20">
-        <v>2.453903206502875E-05</v>
+        <v>0.0002984720700016442</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6128,16 +6128,16 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.593723663578019E-05</v>
+        <v>0.0004342281174329055</v>
       </c>
       <c r="D22">
-        <v>3.593723663578019E-05</v>
+        <v>0.0004342281174329055</v>
       </c>
       <c r="E22">
-        <v>5.425324207045278E-05</v>
+        <v>0.0004030369493500493</v>
       </c>
       <c r="F22">
-        <v>2.82577069258204E-05</v>
+        <v>0.0002286803319722769</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6148,16 +6148,16 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>-1.536856893413763E-08</v>
+        <v>-1.536856891748428E-08</v>
       </c>
       <c r="D23">
-        <v>1.558480706154164E-08</v>
+        <v>1.558480704488829E-08</v>
       </c>
       <c r="E23">
-        <v>1.966288611877469E-08</v>
+        <v>1.966288611690584E-08</v>
       </c>
       <c r="F23">
-        <v>1.22413387281295E-08</v>
+        <v>1.224133872159699E-08</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6168,16 +6168,16 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>1.554412667331695E-07</v>
+        <v>3.376604129734506E-06</v>
       </c>
       <c r="D24">
-        <v>1.554412667331695E-07</v>
+        <v>3.376604129734506E-06</v>
       </c>
       <c r="E24">
-        <v>1.71366936123444E-07</v>
+        <v>2.439919620282443E-06</v>
       </c>
       <c r="F24">
-        <v>1.0831798580852E-07</v>
+        <v>1.505664118570419E-06</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6188,16 +6188,16 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>-4.953994855280697E-06</v>
+        <v>-4.95399485527237E-06</v>
       </c>
       <c r="D25">
-        <v>4.953994855280697E-06</v>
+        <v>4.95399485527237E-06</v>
       </c>
       <c r="E25">
-        <v>5.181100559160208E-06</v>
+        <v>5.181100559166961E-06</v>
       </c>
       <c r="F25">
-        <v>2.805998091304118E-06</v>
+        <v>2.805998091309528E-06</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6208,16 +6208,16 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>4.199793137044106E-06</v>
+        <v>5.422499776953637E-05</v>
       </c>
       <c r="D26">
-        <v>4.199793137044106E-06</v>
+        <v>5.422499776953637E-05</v>
       </c>
       <c r="E26">
-        <v>3.49681816021133E-06</v>
+        <v>3.78476969543817E-05</v>
       </c>
       <c r="F26">
-        <v>2.099308862298378E-06</v>
+        <v>2.542802491360899E-05</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6228,16 +6228,16 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>6.661338147750939E-17</v>
+        <v>3.330669073875469E-17</v>
       </c>
       <c r="D27">
-        <v>6.661338147750939E-17</v>
+        <v>3.330669073875469E-17</v>
       </c>
       <c r="E27">
-        <v>1.40433338743068E-16</v>
+        <v>1.05325004057301E-16</v>
       </c>
       <c r="F27">
-        <v>7.672301229633964E-17</v>
+        <v>6.57758720673978E-17</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6248,16 +6248,16 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>-3.330669073875469E-17</v>
+        <v>5.828670879282072E-17</v>
       </c>
       <c r="D28">
-        <v>9.992007221626409E-17</v>
+        <v>7.494005416219807E-17</v>
       </c>
       <c r="E28">
-        <v>1.807312143953211E-16</v>
+        <v>1.244366375022782E-16</v>
       </c>
       <c r="F28">
-        <v>7.891416606308461E-17</v>
+        <v>6.993781576490216E-17</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6268,16 +6268,16 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>4.627341872176505E-08</v>
+        <v>7.725172403696967E-06</v>
       </c>
       <c r="D29">
-        <v>4.627341872176505E-08</v>
+        <v>7.725172403696967E-06</v>
       </c>
       <c r="E29">
-        <v>9.036969909880253E-08</v>
+        <v>8.37841217353501E-06</v>
       </c>
       <c r="F29">
-        <v>4.604359864345804E-08</v>
+        <v>5.699187405372021E-06</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6288,16 +6288,16 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>5.956605887661726E-05</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>5.956605887661726E-05</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>8.317192107854946E-05</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>4.937771114904924E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6328,16 +6328,16 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>2.410248534706616E-06</v>
+        <v>0.000387871424676256</v>
       </c>
       <c r="D32">
-        <v>2.410248534706616E-06</v>
+        <v>0.000387871424676256</v>
       </c>
       <c r="E32">
-        <v>4.463159733905446E-06</v>
+        <v>0.0003067221261506781</v>
       </c>
       <c r="F32">
-        <v>2.597501989599031E-06</v>
+        <v>0.0001625851765376137</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6348,16 +6348,16 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>-0.002107315813812158</v>
+        <v>-0.002253021142152126</v>
       </c>
       <c r="D33">
-        <v>0.002107315813812158</v>
+        <v>0.002253021142152126</v>
       </c>
       <c r="E33">
-        <v>0.001433937729480625</v>
+        <v>0.001558779385600567</v>
       </c>
       <c r="F33">
-        <v>0.0008278280665765514</v>
+        <v>0.0008834329471914694</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6368,16 +6368,16 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>-4.684700165041855E-07</v>
+        <v>-9.038264706037746E-06</v>
       </c>
       <c r="D34">
-        <v>4.684700165041855E-07</v>
+        <v>9.038264706037746E-06</v>
       </c>
       <c r="E34">
-        <v>3.627418425944633E-07</v>
+        <v>9.627706410740741E-06</v>
       </c>
       <c r="F34">
-        <v>1.982452730745306E-07</v>
+        <v>5.80509899611659E-06</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6428,16 +6428,16 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>-3.330669073875469E-17</v>
+        <v>4.996003610813205E-17</v>
       </c>
       <c r="D37">
-        <v>2.164934898019055E-16</v>
+        <v>1.332267629550188E-16</v>
       </c>
       <c r="E37">
-        <v>2.808666774861361E-16</v>
+        <v>1.764171984283214E-16</v>
       </c>
       <c r="F37">
-        <v>8.578583514002775E-17</v>
+        <v>7.132126564986372E-17</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6548,16 +6548,16 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>-0.01184560625183503</v>
+        <v>-0.01277774068806571</v>
       </c>
       <c r="D43">
-        <v>0.01184560625183503</v>
+        <v>0.01277774068806571</v>
       </c>
       <c r="E43">
-        <v>0.001705691064016229</v>
+        <v>0.002112549805262909</v>
       </c>
       <c r="F43">
-        <v>0.0009896055626380845</v>
+        <v>0.001214319268298379</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -6708,16 +6708,16 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.330669073875469E-17</v>
+        <v>6.661338147750939E-17</v>
       </c>
       <c r="D51">
-        <v>1.332267629550188E-16</v>
+        <v>8.326672684688674E-17</v>
       </c>
       <c r="E51">
-        <v>1.890641683868921E-16</v>
+        <v>9.453208419344607E-17</v>
       </c>
       <c r="F51">
-        <v>7.477386622181624E-17</v>
+        <v>4.397379393387263E-17</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6728,16 +6728,16 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>5.828670879282072E-17</v>
+        <v>-7.494005416219807E-17</v>
       </c>
       <c r="D52">
-        <v>1.748601263784622E-16</v>
+        <v>9.159339953157541E-17</v>
       </c>
       <c r="E52">
-        <v>2.187237980160799E-16</v>
+        <v>1.328213773855213E-16</v>
       </c>
       <c r="F52">
-        <v>7.863668292881347E-17</v>
+        <v>7.644479016731193E-17</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6748,16 +6748,16 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>-7.494005416219807E-17</v>
+        <v>3.330669073875469E-17</v>
       </c>
       <c r="D53">
-        <v>1.748601263784622E-16</v>
+        <v>1.332267629550188E-16</v>
       </c>
       <c r="E53">
-        <v>1.900801035266567E-16</v>
+        <v>1.674560837660972E-16</v>
       </c>
       <c r="F53">
-        <v>5.418660879007288E-17</v>
+        <v>5.303162389536087E-17</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6768,16 +6768,16 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>-1.082467449009528E-16</v>
+        <v>-1.665334536937735E-17</v>
       </c>
       <c r="D54">
-        <v>1.415534356397074E-16</v>
+        <v>6.661338147750939E-17</v>
       </c>
       <c r="E54">
-        <v>1.713218385158806E-16</v>
+        <v>1.164411731669092E-16</v>
       </c>
       <c r="F54">
-        <v>9.181655510860795E-17</v>
+        <v>5.251879559155395E-17</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6788,16 +6788,16 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>-0.01431727447502134</v>
+        <v>-0.01429705163916103</v>
       </c>
       <c r="D55">
-        <v>0.01431727447502134</v>
+        <v>0.01429705163916103</v>
       </c>
       <c r="E55">
-        <v>0.001614228486519417</v>
+        <v>0.001606255121661884</v>
       </c>
       <c r="F55">
-        <v>0.0009799989800861558</v>
+        <v>0.0009744440759695207</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6828,16 +6828,16 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>-0.007262464816732666</v>
+        <v>-0.007262464816732675</v>
       </c>
       <c r="D57">
-        <v>0.007262464816732666</v>
+        <v>0.007262464816732675</v>
       </c>
       <c r="E57">
-        <v>0.00328945427733847</v>
+        <v>0.003289454277338459</v>
       </c>
       <c r="F57">
-        <v>0.001643301158717696</v>
+        <v>0.00164330115871769</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6968,16 +6968,16 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>-0.009541600606069067</v>
+        <v>-0.00954160060606905</v>
       </c>
       <c r="D64">
-        <v>0.009541600606069067</v>
+        <v>0.00954160060606905</v>
       </c>
       <c r="E64">
-        <v>0.004801130083256272</v>
+        <v>0.00480113008325629</v>
       </c>
       <c r="F64">
-        <v>0.002775375716950545</v>
+        <v>0.002775375716950552</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7028,16 +7028,16 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>2.155451363228256E-08</v>
+        <v>2.15545136489359E-08</v>
       </c>
       <c r="D67">
-        <v>2.158464036672303E-08</v>
+        <v>2.158464035006968E-08</v>
       </c>
       <c r="E67">
-        <v>3.222798159063165E-08</v>
+        <v>3.222798157823463E-08</v>
       </c>
       <c r="F67">
-        <v>2.034842128206241E-08</v>
+        <v>2.034842129007839E-08</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7128,16 +7128,16 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>-0.06171597455443587</v>
+        <v>-0.06166068769714009</v>
       </c>
       <c r="D72">
-        <v>0.06171597455443587</v>
+        <v>0.06166068769714009</v>
       </c>
       <c r="E72">
-        <v>0.007653660627830963</v>
+        <v>0.007677042595810818</v>
       </c>
       <c r="F72">
-        <v>0.004749824945770932</v>
+        <v>0.004759924408009351</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7148,16 +7148,16 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>-0.09316815634498117</v>
+        <v>-0.09308819770701389</v>
       </c>
       <c r="D73">
-        <v>0.09316815634498117</v>
+        <v>0.09308819770701389</v>
       </c>
       <c r="E73">
-        <v>0.01129927301434449</v>
+        <v>0.0112971646866338</v>
       </c>
       <c r="F73">
-        <v>0.006454986956853943</v>
+        <v>0.006454391604739964</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7188,16 +7188,16 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>8.326672684688674E-18</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>8.326672684688674E-18</v>
+        <v>1.665334536937735E-17</v>
       </c>
       <c r="E75">
-        <v>2.633125101432526E-17</v>
+        <v>3.925231146709438E-17</v>
       </c>
       <c r="F75">
-        <v>1.667547590723893E-17</v>
+        <v>1.782942051262962E-17</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7328,16 +7328,16 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>-8.326672684688674E-18</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>8.326672684688674E-18</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>2.633125101432526E-17</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>1.448974082093984E-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -7408,16 +7408,16 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>-1.940301852720871E-06</v>
+        <v>-1.940301852729198E-06</v>
       </c>
       <c r="D86">
-        <v>1.940301852720871E-06</v>
+        <v>1.940301852729198E-06</v>
       </c>
       <c r="E86">
-        <v>2.289382183959612E-06</v>
+        <v>2.289382183984635E-06</v>
       </c>
       <c r="F86">
-        <v>1.314583240280846E-06</v>
+        <v>1.314583240295432E-06</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8201,13 +8201,13 @@
         <v>-4.996003610813205E-17</v>
       </c>
       <c r="D2">
-        <v>2.164934898019055E-16</v>
+        <v>1.831867990631508E-16</v>
       </c>
       <c r="E2">
-        <v>2.835962525803382E-16</v>
+        <v>2.084441880825082E-16</v>
       </c>
       <c r="F2">
-        <v>1.025529491102466E-16</v>
+        <v>5.466731473394688E-17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8221,13 +8221,13 @@
         <v>9.992007221626409E-17</v>
       </c>
       <c r="D3">
-        <v>2.997602166487923E-16</v>
+        <v>3.33066907387547E-16</v>
       </c>
       <c r="E3">
-        <v>3.439900227959407E-16</v>
+        <v>4.018332571321417E-16</v>
       </c>
       <c r="F3">
-        <v>9.037594897143512E-17</v>
+        <v>1.197247930462941E-16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -8241,13 +8241,13 @@
         <v>4.996003610813205E-17</v>
       </c>
       <c r="D4">
-        <v>2.831068712794149E-16</v>
+        <v>3.164135620181696E-16</v>
       </c>
       <c r="E4">
-        <v>3.426436770317612E-16</v>
+        <v>3.769039568616951E-16</v>
       </c>
       <c r="F4">
-        <v>1.082067650282643E-16</v>
+        <v>1.086310864762332E-16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -8264,10 +8264,10 @@
         <v>2.664535259100376E-16</v>
       </c>
       <c r="E5">
-        <v>2.830524433501838E-16</v>
+        <v>2.719479911021036E-16</v>
       </c>
       <c r="F5">
-        <v>8.532358464426552E-17</v>
+        <v>8.44157127258548E-17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8281,13 +8281,13 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.332267629550188E-16</v>
+        <v>9.992007221626409E-17</v>
       </c>
       <c r="E6">
-        <v>2.220446049250313E-16</v>
+        <v>2.077037090527612E-16</v>
       </c>
       <c r="F6">
-        <v>9.305351691215128E-17</v>
+        <v>8.928280224813406E-17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8298,16 +8298,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>1.665334536937735E-16</v>
+        <v>1.332267629550188E-16</v>
       </c>
       <c r="D7">
         <v>2.664535259100376E-16</v>
       </c>
       <c r="E7">
-        <v>3.33066907387547E-16</v>
+        <v>3.493235195007276E-16</v>
       </c>
       <c r="F7">
-        <v>1.410802416289021E-16</v>
+        <v>1.364516782051301E-16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8321,13 +8321,13 @@
         <v>-8.326672684688674E-17</v>
       </c>
       <c r="D8">
-        <v>1.498801083243961E-16</v>
+        <v>1.831867990631508E-16</v>
       </c>
       <c r="E8">
-        <v>1.618414262284734E-16</v>
+        <v>1.962615573354719E-16</v>
       </c>
       <c r="F8">
-        <v>5.108540119141333E-17</v>
+        <v>5.487165720436831E-17</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8338,16 +8338,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>-9.992007221626409E-17</v>
+        <v>-3.330669073875469E-17</v>
       </c>
       <c r="D9">
-        <v>2.997602166487923E-16</v>
+        <v>2.331468351712829E-16</v>
       </c>
       <c r="E9">
-        <v>3.528343968566428E-16</v>
+        <v>3.120497043552816E-16</v>
       </c>
       <c r="F9">
-        <v>1.197715233352428E-16</v>
+        <v>1.251305862388406E-16</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8358,16 +8358,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>4.996003610813205E-17</v>
+        <v>3.330669073875469E-17</v>
       </c>
       <c r="D10">
-        <v>2.164934898019055E-16</v>
+        <v>1.998401444325282E-16</v>
       </c>
       <c r="E10">
-        <v>2.942614658762681E-16</v>
+        <v>2.916317306881066E-16</v>
       </c>
       <c r="F10">
-        <v>1.173443841991547E-16</v>
+        <v>1.191567300603279E-16</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8384,10 +8384,10 @@
         <v>1.831867990631508E-16</v>
       </c>
       <c r="E11">
-        <v>2.725139604783062E-16</v>
+        <v>2.488732750045563E-16</v>
       </c>
       <c r="F11">
-        <v>1.075358766676215E-16</v>
+        <v>8.629737416566365E-17</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -8418,16 +8418,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>0.07171701103639957</v>
+        <v>0.07171701103639956</v>
       </c>
       <c r="D13">
-        <v>0.07171701103639957</v>
+        <v>0.07171701103639956</v>
       </c>
       <c r="E13">
-        <v>0.01355789846321178</v>
+        <v>0.01355789846321184</v>
       </c>
       <c r="F13">
-        <v>0.007367113773133458</v>
+        <v>0.007367113773133492</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -8438,16 +8438,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>-9.992007221626409E-17</v>
+        <v>-4.996003610813205E-17</v>
       </c>
       <c r="D14">
-        <v>9.992007221626409E-17</v>
+        <v>1.165734175856414E-16</v>
       </c>
       <c r="E14">
-        <v>1.790180836524724E-16</v>
+        <v>1.579875060859516E-16</v>
       </c>
       <c r="F14">
-        <v>9.901276099145805E-17</v>
+        <v>7.247543575274493E-17</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -8458,16 +8458,16 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>6.661338147750939E-17</v>
+        <v>8.326672684688674E-17</v>
       </c>
       <c r="D15">
-        <v>1.998401444325282E-16</v>
+        <v>2.164934898019055E-16</v>
       </c>
       <c r="E15">
-        <v>3.159750121719031E-16</v>
+        <v>3.164622522642096E-16</v>
       </c>
       <c r="F15">
-        <v>1.487378012622357E-16</v>
+        <v>1.455554164344315E-16</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -8521,13 +8521,13 @@
         <v>4.996003610813205E-17</v>
       </c>
       <c r="D18">
-        <v>8.326672684688674E-17</v>
+        <v>1.165734175856414E-16</v>
       </c>
       <c r="E18">
-        <v>1.579875060859516E-16</v>
+        <v>1.764171984283214E-16</v>
       </c>
       <c r="F18">
-        <v>8.279389034231006E-17</v>
+        <v>7.87435229295007E-17</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -8538,16 +8538,16 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>8.326672684688674E-17</v>
+        <v>4.996003610813205E-17</v>
       </c>
       <c r="D19">
-        <v>8.326672684688674E-17</v>
+        <v>4.996003610813205E-17</v>
       </c>
       <c r="E19">
-        <v>1.618414262284734E-16</v>
+        <v>1.124015143811696E-16</v>
       </c>
       <c r="F19">
-        <v>1.043958196669847E-16</v>
+        <v>7.512921808379874E-17</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -8558,16 +8558,16 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1.665334536937735E-17</v>
       </c>
       <c r="D20">
-        <v>3.330669073875469E-17</v>
+        <v>4.996003610813205E-17</v>
       </c>
       <c r="E20">
-        <v>7.850462293418876E-17</v>
+        <v>9.453208419344607E-17</v>
       </c>
       <c r="F20">
-        <v>4.11508827600421E-17</v>
+        <v>4.089248621310639E-17</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -8578,16 +8578,16 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>-1.665334536937735E-17</v>
+        <v>-3.330669073875469E-17</v>
       </c>
       <c r="D21">
-        <v>2.164934898019055E-16</v>
+        <v>1.665334536937735E-16</v>
       </c>
       <c r="E21">
-        <v>2.984208448290195E-16</v>
+        <v>2.457583428003691E-16</v>
       </c>
       <c r="F21">
-        <v>1.13680824088931E-16</v>
+        <v>1.009368249398735E-16</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -8598,16 +8598,16 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>-3.330669073875469E-17</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>3.330669073875469E-17</v>
       </c>
       <c r="E22">
-        <v>1.05325004057301E-16</v>
+        <v>7.850462293418876E-17</v>
       </c>
       <c r="F22">
-        <v>6.45338336261964E-17</v>
+        <v>3.452262811968165E-17</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -8618,16 +8618,16 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-3.330669073875469E-17</v>
       </c>
       <c r="D23">
-        <v>1.332267629550188E-16</v>
+        <v>9.992007221626409E-17</v>
       </c>
       <c r="E23">
-        <v>2.077037090527612E-16</v>
+        <v>1.530336829712622E-16</v>
       </c>
       <c r="F23">
-        <v>1.106748403916378E-16</v>
+        <v>8.163681052614331E-17</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -8638,16 +8638,16 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>-3.330669073875469E-17</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>3.330669073875469E-17</v>
       </c>
       <c r="E24">
-        <v>7.021666937153402E-17</v>
+        <v>7.850462293418876E-17</v>
       </c>
       <c r="F24">
-        <v>4.490608439126299E-17</v>
+        <v>4.000925547864984E-17</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -8658,16 +8658,16 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>4.996003610813205E-17</v>
+        <v>3.330669073875469E-17</v>
       </c>
       <c r="D25">
-        <v>8.326672684688674E-17</v>
+        <v>6.661338147750939E-17</v>
       </c>
       <c r="E25">
-        <v>1.371024298005671E-16</v>
+        <v>1.05325004057301E-16</v>
       </c>
       <c r="F25">
-        <v>7.775678763549011E-17</v>
+        <v>5.513773162019205E-17</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -8678,13 +8678,13 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>4.996003610813205E-17</v>
+        <v>1.665334536937735E-17</v>
       </c>
       <c r="D26">
         <v>4.996003610813205E-17</v>
       </c>
       <c r="E26">
-        <v>8.044330061068549E-17</v>
+        <v>9.453208419344605E-17</v>
       </c>
       <c r="F26">
         <v>5.024107913115308E-17</v>
@@ -8698,16 +8698,16 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>1.665334536937735E-17</v>
+        <v>3.330669073875469E-17</v>
       </c>
       <c r="D27">
-        <v>1.665334536937735E-17</v>
+        <v>3.330669073875469E-17</v>
       </c>
       <c r="E27">
-        <v>5.266250202865051E-17</v>
+        <v>7.021666937153401E-17</v>
       </c>
       <c r="F27">
-        <v>3.179826956138408E-17</v>
+        <v>3.836150614816982E-17</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -8718,16 +8718,16 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>1.665334536937735E-17</v>
+        <v>3.330669073875469E-17</v>
       </c>
       <c r="D28">
-        <v>4.996003610813205E-17</v>
+        <v>6.661338147750939E-17</v>
       </c>
       <c r="E28">
-        <v>1.228791714001846E-16</v>
+        <v>1.313633598143319E-16</v>
       </c>
       <c r="F28">
-        <v>6.578159800343114E-17</v>
+        <v>6.822919078872701E-17</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -8758,16 +8758,16 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>1.665334536937735E-17</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1.665334536937735E-17</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>5.266250202865052E-17</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>2.68014084634352E-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -8798,16 +8798,16 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1.665334536937735E-17</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1.665334536937735E-17</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>5.266250202865052E-17</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>2.737545611003004E-17</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -8818,16 +8818,16 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>-1.665334536937735E-17</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1.665334536937735E-17</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>5.266250202865052E-17</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>3.73797365346233E-17</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -8838,16 +8838,16 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>-0.0003749129540875473</v>
+        <v>-0.0003749129540875806</v>
       </c>
       <c r="D34">
-        <v>0.0003749129540875473</v>
+        <v>0.0003749129540875806</v>
       </c>
       <c r="E34">
-        <v>0.0003295088179576777</v>
+        <v>0.0003295088179577039</v>
       </c>
       <c r="F34">
-        <v>0.0001895976190286309</v>
+        <v>0.0001895976190286525</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -8898,16 +8898,16 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>-1.665334536937735E-17</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>1.665334536937735E-17</v>
+        <v>3.330669073875469E-17</v>
       </c>
       <c r="E37">
-        <v>5.266250202865052E-17</v>
+        <v>7.850462293418876E-17</v>
       </c>
       <c r="F37">
-        <v>2.740492272124077E-17</v>
+        <v>3.90510064772897E-17</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -9018,16 +9018,16 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>-0.002064787488395958</v>
+        <v>-0.002064787488395991</v>
       </c>
       <c r="D43">
-        <v>0.002064787488395958</v>
+        <v>0.002064787488395991</v>
       </c>
       <c r="E43">
-        <v>0.001256625176360736</v>
+        <v>0.001256625176360763</v>
       </c>
       <c r="F43">
-        <v>0.0007492375080146275</v>
+        <v>0.0007492375080146469</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -9038,16 +9038,16 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>-0.04894081175531682</v>
+        <v>-0.04894081175531679</v>
       </c>
       <c r="D44">
-        <v>0.04894081175531682</v>
+        <v>0.04894081175531679</v>
       </c>
       <c r="E44">
-        <v>0.003983996257240162</v>
+        <v>0.003983996257240128</v>
       </c>
       <c r="F44">
-        <v>0.00271784892691766</v>
+        <v>0.002717848926917633</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -9184,10 +9184,10 @@
         <v>1.665334536937735E-17</v>
       </c>
       <c r="E51">
-        <v>5.266250202865052E-17</v>
+        <v>5.266250202865051E-17</v>
       </c>
       <c r="F51">
-        <v>3.058206855697571E-17</v>
+        <v>2.876890871914322E-17</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -9198,7 +9198,7 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>1.665334536937735E-17</v>
+        <v>-1.665334536937735E-17</v>
       </c>
       <c r="D52">
         <v>1.665334536937735E-17</v>
@@ -9218,16 +9218,16 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>1.665334536937735E-16</v>
+        <v>1.831867990631508E-16</v>
       </c>
       <c r="D53">
-        <v>1.998401444325282E-16</v>
+        <v>2.164934898019055E-16</v>
       </c>
       <c r="E53">
-        <v>2.077037090527612E-16</v>
+        <v>2.282041754574856E-16</v>
       </c>
       <c r="F53">
-        <v>1.068894731652316E-16</v>
+        <v>1.193935636583679E-16</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -9238,16 +9238,16 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>-1.165734175856414E-16</v>
+        <v>-4.996003610813205E-17</v>
       </c>
       <c r="D54">
-        <v>2.164934898019055E-16</v>
+        <v>2.498001805406602E-16</v>
       </c>
       <c r="E54">
-        <v>2.488732750045563E-16</v>
+        <v>3.14508762904515E-16</v>
       </c>
       <c r="F54">
-        <v>9.005626956087437E-17</v>
+        <v>9.558413794916995E-17</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -9538,16 +9538,16 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>4.996003610813205E-17</v>
+        <v>6.661338147750939E-17</v>
       </c>
       <c r="D69">
-        <v>1.165734175856414E-16</v>
+        <v>9.992007221626409E-17</v>
       </c>
       <c r="E69">
-        <v>1.930958407717185E-16</v>
+        <v>1.790180836524724E-16</v>
       </c>
       <c r="F69">
-        <v>9.057576969635635E-17</v>
+        <v>9.70804931024277E-17</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -9598,16 +9598,16 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>-0.01396215161020908</v>
+        <v>-0.01396215161020906</v>
       </c>
       <c r="D72">
-        <v>0.01396215161020908</v>
+        <v>0.01396215161020906</v>
       </c>
       <c r="E72">
-        <v>0.006112954799447051</v>
+        <v>0.006112954799447052</v>
       </c>
       <c r="F72">
-        <v>0.003952974850280289</v>
+        <v>0.003952974850280302</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -9621,13 +9621,13 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>3.330669073875469E-17</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>7.850462293418876E-17</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>3.960917990427541E-17</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -9658,16 +9658,16 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>-0.02169580840518713</v>
+        <v>-0.02169580840518712</v>
       </c>
       <c r="D75">
-        <v>0.02169580840518713</v>
+        <v>0.02169580840518712</v>
       </c>
       <c r="E75">
-        <v>0.008941065176740875</v>
+        <v>0.008941065176740854</v>
       </c>
       <c r="F75">
-        <v>0.004994936232057206</v>
+        <v>0.004994936232057194</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -9798,16 +9798,16 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>-1.665334536937735E-17</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>1.665334536937735E-17</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>5.266250202865051E-17</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>3.649847879509892E-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -9858,16 +9858,16 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>-0.06298301610238821</v>
+        <v>-0.06298301610238824</v>
       </c>
       <c r="D85">
-        <v>0.06298301610238821</v>
+        <v>0.06298301610238824</v>
       </c>
       <c r="E85">
-        <v>0.008608471213624238</v>
+        <v>0.008608471213624208</v>
       </c>
       <c r="F85">
-        <v>0.004749586631687053</v>
+        <v>0.004749586631687035</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -10674,10 +10674,10 @@
         <v>1.582067810090848E-16</v>
       </c>
       <c r="E2">
-        <v>2.421266352699501E-16</v>
+        <v>1.843187571002768E-16</v>
       </c>
       <c r="F2">
-        <v>1.126552659131557E-16</v>
+        <v>7.86749910664971E-17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10688,16 +10688,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.01043208564867305</v>
+        <v>0.01043208564867306</v>
       </c>
       <c r="D3">
-        <v>0.01043208564867308</v>
+        <v>0.01043208564867309</v>
       </c>
       <c r="E3">
-        <v>0.009619183682663566</v>
+        <v>0.009619183682663552</v>
       </c>
       <c r="F3">
-        <v>0.006582206271870909</v>
+        <v>0.006582206271870899</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -10708,16 +10708,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0.004357347118429283</v>
+        <v>0.004357347118429229</v>
       </c>
       <c r="D4">
-        <v>0.004357347118429283</v>
+        <v>0.004357347118429229</v>
       </c>
       <c r="E4">
-        <v>0.009349625248400776</v>
+        <v>0.009349625248400844</v>
       </c>
       <c r="F4">
-        <v>0.005564986650360744</v>
+        <v>0.005564986650360775</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -10728,16 +10728,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>8.326672684688674E-17</v>
+        <v>9.159339953157541E-17</v>
       </c>
       <c r="D5">
-        <v>1.498801083243961E-16</v>
+        <v>1.082467449009528E-16</v>
       </c>
       <c r="E5">
-        <v>1.798766884999431E-16</v>
+        <v>1.859830685874248E-16</v>
       </c>
       <c r="F5">
-        <v>6.224195610674558E-17</v>
+        <v>9.722656539860074E-17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10754,10 +10754,10 @@
         <v>0.1213066123185052</v>
       </c>
       <c r="E6">
-        <v>0.1034813885099183</v>
+        <v>0.1034813885099184</v>
       </c>
       <c r="F6">
-        <v>0.05808735858431771</v>
+        <v>0.05808735858431775</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10768,16 +10768,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.03805970116878506</v>
+        <v>0.03805970116878513</v>
       </c>
       <c r="D7">
-        <v>0.03805970116878513</v>
+        <v>0.0380597011687852</v>
       </c>
       <c r="E7">
-        <v>0.04867841934675189</v>
+        <v>0.04867841934675187</v>
       </c>
       <c r="F7">
-        <v>0.03105682614328636</v>
+        <v>0.03105682614328635</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10788,16 +10788,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>-4.996003610813205E-17</v>
+        <v>-1.082467449009528E-16</v>
       </c>
       <c r="D8">
-        <v>9.992007221626409E-17</v>
+        <v>1.415534356397074E-16</v>
       </c>
       <c r="E8">
-        <v>1.42610729654992E-16</v>
+        <v>1.572543814522575E-16</v>
       </c>
       <c r="F8">
-        <v>6.466938740277211E-17</v>
+        <v>7.157524260181583E-17</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -10808,16 +10808,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>5.828670879282072E-17</v>
+        <v>-2.498001805406602E-17</v>
       </c>
       <c r="D9">
-        <v>1.249000902703301E-16</v>
+        <v>1.082467449009528E-16</v>
       </c>
       <c r="E9">
-        <v>1.304807292606198E-16</v>
+        <v>1.417981262901691E-16</v>
       </c>
       <c r="F9">
-        <v>3.41303640033982E-17</v>
+        <v>5.136244827775958E-17</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -10828,16 +10828,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0.0008067616266106386</v>
+        <v>0.0008067616266105887</v>
       </c>
       <c r="D10">
-        <v>0.0008067616266106386</v>
+        <v>0.0008067616266105887</v>
       </c>
       <c r="E10">
-        <v>0.0007967815986502759</v>
+        <v>0.0007967815986502528</v>
       </c>
       <c r="F10">
-        <v>0.0004049978030843955</v>
+        <v>0.000404997803084384</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -10848,16 +10848,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>-3.330669073875469E-17</v>
       </c>
       <c r="D11">
-        <v>1.332267629550188E-16</v>
+        <v>6.661338147750939E-17</v>
       </c>
       <c r="E11">
-        <v>1.922962686383564E-16</v>
+        <v>1.313633598143319E-16</v>
       </c>
       <c r="F11">
-        <v>8.277829166281741E-17</v>
+        <v>7.71677546772237E-17</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -10888,16 +10888,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>4.996003610813205E-17</v>
+        <v>-3.330669073875469E-17</v>
       </c>
       <c r="D13">
-        <v>1.165734175856414E-16</v>
+        <v>6.661338147750939E-17</v>
       </c>
       <c r="E13">
-        <v>1.579875060859516E-16</v>
+        <v>1.313633598143319E-16</v>
       </c>
       <c r="F13">
-        <v>6.258678952724219E-17</v>
+        <v>6.984408503624937E-17</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -10914,10 +10914,10 @@
         <v>0.2670314714607321</v>
       </c>
       <c r="E14">
-        <v>0.02229549550326903</v>
+        <v>0.02229549550326905</v>
       </c>
       <c r="F14">
-        <v>0.01375420049009922</v>
+        <v>0.01375420049009923</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -10928,16 +10928,16 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-1.665334536937735E-17</v>
       </c>
       <c r="D15">
-        <v>9.992007221626409E-17</v>
+        <v>4.996003610813205E-17</v>
       </c>
       <c r="E15">
-        <v>1.359739955510518E-16</v>
+        <v>9.453208419344607E-17</v>
       </c>
       <c r="F15">
-        <v>5.388714150947518E-17</v>
+        <v>5.032668334918803E-17</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -10968,16 +10968,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>1.665334536937735E-17</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>1.665334536937735E-17</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>5.266250202865051E-17</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>2.869399931269721E-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -11008,16 +11008,16 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>-3.330669073875469E-17</v>
+        <v>-1.665334536937735E-17</v>
       </c>
       <c r="D19">
-        <v>3.330669073875469E-17</v>
+        <v>4.996003610813205E-17</v>
       </c>
       <c r="E19">
-        <v>7.021666937153402E-17</v>
+        <v>9.453208419344607E-17</v>
       </c>
       <c r="F19">
-        <v>3.850710176087939E-17</v>
+        <v>4.809956097881535E-17</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -11028,16 +11028,16 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>-3.330669073875469E-17</v>
+        <v>-5.828670879282072E-17</v>
       </c>
       <c r="D20">
-        <v>1.332267629550188E-16</v>
+        <v>9.159339953157541E-17</v>
       </c>
       <c r="E20">
-        <v>1.890641683868921E-16</v>
+        <v>1.362569802391531E-16</v>
       </c>
       <c r="F20">
-        <v>7.769240652866739E-17</v>
+        <v>7.721236676632509E-17</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -11057,7 +11057,7 @@
         <v>9.453208419344607E-17</v>
       </c>
       <c r="F21">
-        <v>4.601393271559256E-17</v>
+        <v>4.730661647271511E-17</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -11074,10 +11074,10 @@
         <v>1.082467449009528E-16</v>
       </c>
       <c r="E22">
-        <v>1.532851764572305E-16</v>
+        <v>1.892677916751886E-16</v>
       </c>
       <c r="F22">
-        <v>6.499575681478629E-17</v>
+        <v>8.473190733575888E-17</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -11088,16 +11088,16 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>6.661338147750939E-17</v>
+        <v>4.996003610813205E-17</v>
       </c>
       <c r="D23">
-        <v>9.992007221626409E-17</v>
+        <v>4.996003610813205E-17</v>
       </c>
       <c r="E23">
-        <v>1.40433338743068E-16</v>
+        <v>8.044330061068549E-17</v>
       </c>
       <c r="F23">
-        <v>7.071990714985404E-17</v>
+        <v>4.887303851576036E-17</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -11108,16 +11108,16 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>-3.330669073875469E-17</v>
+        <v>-6.661338147750939E-17</v>
       </c>
       <c r="D24">
-        <v>6.661338147750939E-17</v>
+        <v>9.992007221626409E-17</v>
       </c>
       <c r="E24">
-        <v>1.313633598143319E-16</v>
+        <v>1.790180836524724E-16</v>
       </c>
       <c r="F24">
-        <v>7.0109361952779E-17</v>
+        <v>1.007773109348084E-16</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -11128,16 +11128,16 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>-0.09649262840392037</v>
+        <v>-0.09649262840392034</v>
       </c>
       <c r="D25">
-        <v>0.09649262840392037</v>
+        <v>0.09649262840392034</v>
       </c>
       <c r="E25">
         <v>0.05498274176801848</v>
       </c>
       <c r="F25">
-        <v>0.03458566661815242</v>
+        <v>0.03458566661815241</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -11148,16 +11148,16 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>4.996003610813205E-17</v>
+        <v>-3.330669073875469E-17</v>
       </c>
       <c r="D26">
-        <v>4.996003610813205E-17</v>
+        <v>6.661338147750939E-17</v>
       </c>
       <c r="E26">
-        <v>1.124015143811696E-16</v>
+        <v>1.313633598143319E-16</v>
       </c>
       <c r="F26">
-        <v>6.509750209763674E-17</v>
+        <v>6.272076068916324E-17</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -11168,16 +11168,16 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>1.665334536937735E-17</v>
+        <v>3.330669073875469E-17</v>
       </c>
       <c r="D27">
-        <v>1.665334536937735E-17</v>
+        <v>3.330669073875469E-17</v>
       </c>
       <c r="E27">
-        <v>5.266250202865051E-17</v>
+        <v>7.021666937153401E-17</v>
       </c>
       <c r="F27">
-        <v>3.28879360336989E-17</v>
+        <v>3.836150614816982E-17</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -11188,16 +11188,16 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>2.498001805406602E-17</v>
+        <v>5.828670879282072E-17</v>
       </c>
       <c r="D28">
-        <v>7.494005416219807E-17</v>
+        <v>9.159339953157541E-17</v>
       </c>
       <c r="E28">
         <v>1.757609635498488E-16</v>
       </c>
       <c r="F28">
-        <v>9.481206848973843E-17</v>
+        <v>9.573375807155268E-17</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -11208,16 +11208,16 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>1.665334536937735E-17</v>
+        <v>-8.326672684688674E-18</v>
       </c>
       <c r="D29">
-        <v>4.996003610813205E-17</v>
+        <v>5.828670879282072E-17</v>
       </c>
       <c r="E29">
-        <v>9.453208419344605E-17</v>
+        <v>1.268888266754693E-16</v>
       </c>
       <c r="F29">
-        <v>4.742475824042974E-17</v>
+        <v>5.566389033417284E-17</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -11228,16 +11228,16 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>8.326672684688674E-18</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1.082467449009528E-16</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>2.093661040719187E-16</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>9.579149049137303E-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -11268,16 +11268,16 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>-3.330669073875469E-17</v>
+        <v>2.498001805406602E-17</v>
       </c>
       <c r="D32">
-        <v>6.661338147750939E-17</v>
+        <v>1.249000902703301E-16</v>
       </c>
       <c r="E32">
-        <v>1.313633598143319E-16</v>
+        <v>1.667645897573933E-16</v>
       </c>
       <c r="F32">
-        <v>7.031091524093112E-17</v>
+        <v>6.301517775499721E-17</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -11288,16 +11288,16 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>4.996003610813205E-17</v>
+        <v>-8.326672684688674E-18</v>
       </c>
       <c r="D33">
-        <v>1.165734175856414E-16</v>
+        <v>7.494005416219807E-17</v>
       </c>
       <c r="E33">
-        <v>1.371024298005671E-16</v>
+        <v>1.141020877287428E-16</v>
       </c>
       <c r="F33">
-        <v>4.958891290622553E-17</v>
+        <v>4.61280950828196E-17</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -11308,16 +11308,16 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>-4.996003610813205E-17</v>
+        <v>-6.661338147750939E-17</v>
       </c>
       <c r="D34">
-        <v>8.326672684688674E-17</v>
+        <v>9.992007221626409E-17</v>
       </c>
       <c r="E34">
-        <v>1.371024298005671E-16</v>
+        <v>1.40433338743068E-16</v>
       </c>
       <c r="F34">
-        <v>6.403161717068918E-17</v>
+        <v>6.452632925572784E-17</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -11368,16 +11368,16 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>8.326672684688674E-18</v>
+        <v>2.498001805406602E-17</v>
       </c>
       <c r="D37">
-        <v>2.498001805406602E-17</v>
+        <v>9.159339953157541E-17</v>
       </c>
       <c r="E37">
-        <v>6.143958570009228E-17</v>
+        <v>1.244366375022782E-16</v>
       </c>
       <c r="F37">
-        <v>3.375984675700678E-17</v>
+        <v>4.624255739455139E-17</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -11488,16 +11488,16 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>8.326672684688674E-18</v>
       </c>
       <c r="D43">
-        <v>6.661338147750939E-17</v>
+        <v>5.828670879282072E-17</v>
       </c>
       <c r="E43">
-        <v>1.038518545263806E-16</v>
+        <v>9.968850742707576E-17</v>
       </c>
       <c r="F43">
-        <v>4.916583783874599E-17</v>
+        <v>4.315086927730102E-17</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -11511,13 +11511,13 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>3.330669073875469E-17</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>7.850462293418876E-17</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>3.970686659621032E-17</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -11648,16 +11648,16 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>-8.326672684688674E-18</v>
+        <v>-1.665334536937735E-17</v>
       </c>
       <c r="D51">
-        <v>4.163336342344337E-17</v>
+        <v>8.326672684688674E-17</v>
       </c>
       <c r="E51">
-        <v>8.280284175086361E-17</v>
+        <v>1.228791714001846E-16</v>
       </c>
       <c r="F51">
-        <v>4.27499873768415E-17</v>
+        <v>5.428011679569052E-17</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -11668,16 +11668,16 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>8.326672684688674E-18</v>
+        <v>-1.665334536937735E-17</v>
       </c>
       <c r="D52">
-        <v>4.163336342344337E-17</v>
+        <v>8.326672684688674E-17</v>
       </c>
       <c r="E52">
-        <v>8.280284175086361E-17</v>
+        <v>1.458158653440533E-16</v>
       </c>
       <c r="F52">
-        <v>3.905341763922724E-17</v>
+        <v>6.851014704596284E-17</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -11688,16 +11688,16 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>-3.330669073875469E-17</v>
+        <v>8.326672684688674E-18</v>
       </c>
       <c r="D53">
-        <v>4.996003610813205E-17</v>
+        <v>5.828670879282072E-17</v>
       </c>
       <c r="E53">
-        <v>8.044330061068548E-17</v>
+        <v>9.968850742707576E-17</v>
       </c>
       <c r="F53">
-        <v>4.26693590411994E-17</v>
+        <v>4.499675638961625E-17</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -11708,16 +11708,16 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>8.326672684688674E-18</v>
+        <v>-8.326672684688674E-18</v>
       </c>
       <c r="D54">
-        <v>1.915134717478395E-16</v>
+        <v>1.748601263784622E-16</v>
       </c>
       <c r="E54">
-        <v>2.33707880104249E-16</v>
+        <v>2.201281385938264E-16</v>
       </c>
       <c r="F54">
-        <v>6.235509905280955E-17</v>
+        <v>7.909260497173793E-17</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -11728,16 +11728,16 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>-0.01768817777098082</v>
+        <v>-0.01768817777098079</v>
       </c>
       <c r="D55">
-        <v>0.01768817777098082</v>
+        <v>0.01768817777098079</v>
       </c>
       <c r="E55">
-        <v>0.004897809288345429</v>
+        <v>0.004897809288345409</v>
       </c>
       <c r="F55">
-        <v>0.002742265185779976</v>
+        <v>0.002742265185779973</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -11908,16 +11908,16 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>1.665334536937735E-17</v>
+        <v>8.326672684688674E-18</v>
       </c>
       <c r="D64">
-        <v>1.665334536937735E-17</v>
+        <v>8.326672684688674E-18</v>
       </c>
       <c r="E64">
-        <v>5.266250202865052E-17</v>
+        <v>2.633125101432526E-17</v>
       </c>
       <c r="F64">
-        <v>3.354399385779223E-17</v>
+        <v>1.677199692889611E-17</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -12068,16 +12068,16 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>-3.330669073875469E-17</v>
+        <v>1.665334536937735E-17</v>
       </c>
       <c r="D72">
-        <v>3.330669073875469E-17</v>
+        <v>1.665334536937735E-17</v>
       </c>
       <c r="E72">
-        <v>7.021666937153402E-17</v>
+        <v>5.266250202865052E-17</v>
       </c>
       <c r="F72">
-        <v>4.258384004786572E-17</v>
+        <v>3.393154043595079E-17</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -12088,16 +12088,16 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>-4.163336342344337E-17</v>
+        <v>-1.665334536937735E-17</v>
       </c>
       <c r="D73">
-        <v>4.163336342344337E-17</v>
+        <v>4.996003610813205E-17</v>
       </c>
       <c r="E73">
-        <v>7.076311083754595E-17</v>
+        <v>1.228791714001846E-16</v>
       </c>
       <c r="F73">
-        <v>4.184167629971612E-17</v>
+        <v>6.387681301349022E-17</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -12131,13 +12131,13 @@
         <v>-4.163336342344337E-17</v>
       </c>
       <c r="D75">
-        <v>4.163336342344337E-17</v>
+        <v>5.828670879282072E-17</v>
       </c>
       <c r="E75">
-        <v>7.076311083754595E-17</v>
+        <v>1.193812447098184E-16</v>
       </c>
       <c r="F75">
-        <v>4.598790731235403E-17</v>
+        <v>6.190802262698827E-17</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -12268,16 +12268,16 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-3.330669073875469E-17</v>
       </c>
       <c r="D82">
         <v>3.330669073875469E-17</v>
       </c>
       <c r="E82">
-        <v>7.850462293418876E-17</v>
+        <v>7.021666937153402E-17</v>
       </c>
       <c r="F82">
-        <v>4.27716932288617E-17</v>
+        <v>4.088195844406712E-17</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -12328,16 +12328,16 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.163336342344337E-17</v>
+        <v>2.498001805406602E-17</v>
       </c>
       <c r="D85">
-        <v>7.494005416219807E-17</v>
+        <v>5.828670879282072E-17</v>
       </c>
       <c r="E85">
-        <v>1.056900831556394E-16</v>
+        <v>9.654792038585928E-17</v>
       </c>
       <c r="F85">
-        <v>5.033389954479673E-17</v>
+        <v>5.083595862102872E-17</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -13138,16 +13138,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1.665334536937735E-16</v>
+        <v>1.498801083243961E-16</v>
       </c>
       <c r="D2">
-        <v>2.664535259100376E-16</v>
+        <v>2.831068712794149E-16</v>
       </c>
       <c r="E2">
-        <v>2.937374022976103E-16</v>
+        <v>2.770000884194579E-16</v>
       </c>
       <c r="F2">
-        <v>1.02641579955772E-16</v>
+        <v>6.698846249536634E-17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -13161,13 +13161,13 @@
         <v>-6.661338147750939E-17</v>
       </c>
       <c r="D3">
-        <v>9.992007221626409E-17</v>
+        <v>1.332267629550188E-16</v>
       </c>
       <c r="E3">
-        <v>1.164411731669092E-16</v>
+        <v>1.790180836524724E-16</v>
       </c>
       <c r="F3">
-        <v>4.972760523781399E-17</v>
+        <v>8.140778334035272E-17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -13178,16 +13178,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.996003610813205E-17</v>
+        <v>-1.665334536937735E-17</v>
       </c>
       <c r="D4">
-        <v>1.498801083243961E-16</v>
+        <v>1.831867990631508E-16</v>
       </c>
       <c r="E4">
-        <v>1.930958407717185E-16</v>
+        <v>2.282041754574856E-16</v>
       </c>
       <c r="F4">
-        <v>7.801929819318621E-17</v>
+        <v>7.534733781909356E-17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -13201,13 +13201,13 @@
         <v>3.330669073875469E-17</v>
       </c>
       <c r="D5">
-        <v>1.332267629550188E-16</v>
+        <v>1.998401444325282E-16</v>
       </c>
       <c r="E5">
-        <v>2.328823463338185E-16</v>
+        <v>2.696722356863273E-16</v>
       </c>
       <c r="F5">
-        <v>1.144511314122606E-16</v>
+        <v>9.814819484204412E-17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -13218,16 +13218,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>-4.996003610813205E-17</v>
+        <v>-3.330669073875469E-17</v>
       </c>
       <c r="D6">
-        <v>8.326672684688674E-17</v>
+        <v>1.332267629550188E-16</v>
       </c>
       <c r="E6">
-        <v>1.371024298005671E-16</v>
+        <v>2.047150106608361E-16</v>
       </c>
       <c r="F6">
-        <v>7.589379390453793E-17</v>
+        <v>8.463977943938252E-17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -13238,16 +13238,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>1.165734175856414E-16</v>
+        <v>1.498801083243961E-16</v>
       </c>
       <c r="D7">
-        <v>1.498801083243961E-16</v>
+        <v>1.831867990631508E-16</v>
       </c>
       <c r="E7">
-        <v>1.764171984283214E-16</v>
+        <v>2.142759199588038E-16</v>
       </c>
       <c r="F7">
-        <v>8.903174629879396E-17</v>
+        <v>1.17197561426901E-16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -13258,16 +13258,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>2.164934898019055E-16</v>
+        <v>2.331468351712829E-16</v>
       </c>
       <c r="D8">
-        <v>3.497202527569243E-16</v>
+        <v>3.33066907387547E-16</v>
       </c>
       <c r="E8">
-        <v>4.231246242305421E-16</v>
+        <v>4.242156220644677E-16</v>
       </c>
       <c r="F8">
-        <v>1.794625078649684E-16</v>
+        <v>2.034663111007848E-16</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -13278,16 +13278,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>-6.661338147750939E-17</v>
+        <v>-8.326672684688674E-17</v>
       </c>
       <c r="D9">
-        <v>1.998401444325282E-16</v>
+        <v>2.498001805406602E-16</v>
       </c>
       <c r="E9">
-        <v>2.381163109968744E-16</v>
+        <v>2.747661802696606E-16</v>
       </c>
       <c r="F9">
-        <v>7.471555682910412E-17</v>
+        <v>6.455384101580319E-17</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -13298,16 +13298,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>-1.665334536937735E-17</v>
+        <v>4.996003610813205E-17</v>
       </c>
       <c r="D10">
         <v>8.326672684688674E-17</v>
       </c>
       <c r="E10">
-        <v>1.458158653440533E-16</v>
+        <v>1.371024298005671E-16</v>
       </c>
       <c r="F10">
-        <v>6.640033411224843E-17</v>
+        <v>7.4154614778964E-17</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -13318,16 +13318,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>1.665334536937735E-17</v>
+        <v>8.326672684688674E-17</v>
       </c>
       <c r="D11">
-        <v>1.831867990631508E-16</v>
+        <v>2.164934898019055E-16</v>
       </c>
       <c r="E11">
-        <v>2.770000884194578E-16</v>
+        <v>3.353718961872246E-16</v>
       </c>
       <c r="F11">
-        <v>1.211770411830108E-16</v>
+        <v>1.680568033726937E-16</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -13358,16 +13358,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>4.996003610813205E-17</v>
+        <v>3.330669073875469E-17</v>
       </c>
       <c r="D13">
-        <v>1.165734175856414E-16</v>
+        <v>9.992007221626409E-17</v>
       </c>
       <c r="E13">
-        <v>2.488732750045563E-16</v>
+        <v>2.457583428003691E-16</v>
       </c>
       <c r="F13">
-        <v>1.223282742279029E-16</v>
+        <v>1.257978900548111E-16</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -13378,16 +13378,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.330669073875469E-17</v>
+        <v>1.665334536937735E-17</v>
       </c>
       <c r="D14">
-        <v>1.665334536937735E-16</v>
+        <v>1.498801083243961E-16</v>
       </c>
       <c r="E14">
-        <v>2.916317306881067E-16</v>
+        <v>2.413299018320565E-16</v>
       </c>
       <c r="F14">
-        <v>1.281892188620975E-16</v>
+        <v>9.848094606683277E-17</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -13398,16 +13398,16 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>-0.007733333333333303</v>
+        <v>-0.00773333333333337</v>
       </c>
       <c r="D15">
         <v>0.00773333333333347</v>
       </c>
       <c r="E15">
-        <v>0.007967030830046812</v>
+        <v>0.0079670308300468</v>
       </c>
       <c r="F15">
-        <v>0.004949623738145086</v>
+        <v>0.004949623738145124</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -13438,16 +13438,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>-4.996003610813205E-17</v>
+        <v>-3.330669073875469E-17</v>
       </c>
       <c r="D17">
-        <v>1.498801083243961E-16</v>
+        <v>1.332267629550188E-16</v>
       </c>
       <c r="E17">
-        <v>2.361671678905735E-16</v>
+        <v>2.047150106608361E-16</v>
       </c>
       <c r="F17">
-        <v>1.149090578783052E-16</v>
+        <v>9.363685797672402E-17</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -13458,16 +13458,16 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>-1.665334536937735E-17</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1.665334536937735E-17</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>5.266250202865051E-17</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>3.479585760627939E-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -13498,16 +13498,16 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>-8.326672684688674E-17</v>
+        <v>-9.992007221626409E-17</v>
       </c>
       <c r="D20">
-        <v>8.326672684688674E-17</v>
+        <v>9.992007221626409E-17</v>
       </c>
       <c r="E20">
-        <v>1.177569344012831E-16</v>
+        <v>1.60886601221371E-16</v>
       </c>
       <c r="F20">
-        <v>7.089088904195617E-17</v>
+        <v>1.005608433331589E-16</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -13538,16 +13538,16 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>-4.996003610813205E-17</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>8.326672684688674E-17</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>1.371024298005671E-16</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>7.202039545613931E-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -13558,16 +13558,16 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>-3.330669073875469E-17</v>
+        <v>-4.996003610813205E-17</v>
       </c>
       <c r="D23">
-        <v>9.992007221626409E-17</v>
+        <v>8.326672684688674E-17</v>
       </c>
       <c r="E23">
-        <v>1.719950113979703E-16</v>
+        <v>1.371024298005671E-16</v>
       </c>
       <c r="F23">
-        <v>8.840098714576846E-17</v>
+        <v>7.641310991805895E-17</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -13578,16 +13578,16 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1.665334536937735E-17</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1.665334536937735E-17</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>5.266250202865051E-17</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>3.120902959438987E-17</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -13598,16 +13598,16 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>1.665334536937735E-17</v>
+        <v>-1.665334536937735E-17</v>
       </c>
       <c r="D25">
         <v>1.498801083243961E-16</v>
       </c>
       <c r="E25">
-        <v>2.282041754574856E-16</v>
+        <v>2.537776533509386E-16</v>
       </c>
       <c r="F25">
-        <v>1.077957486685219E-16</v>
+        <v>1.210206412201481E-16</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -13618,16 +13618,16 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.330669073875469E-17</v>
+        <v>-4.996003610813205E-17</v>
       </c>
       <c r="D26">
-        <v>3.330669073875469E-17</v>
+        <v>4.996003610813205E-17</v>
       </c>
       <c r="E26">
-        <v>7.021666937153401E-17</v>
+        <v>8.044330061068548E-17</v>
       </c>
       <c r="F26">
-        <v>4.898740272590132E-17</v>
+        <v>4.504963875943084E-17</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -13638,16 +13638,16 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>3.330669073875469E-17</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>3.330669073875469E-17</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1.05325004057301E-16</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>6.57758720673978E-17</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -13658,16 +13658,16 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>6.661338147750939E-17</v>
+        <v>4.996003610813205E-17</v>
       </c>
       <c r="D28">
-        <v>1.332267629550188E-16</v>
+        <v>1.165734175856414E-16</v>
       </c>
       <c r="E28">
-        <v>2.248030287623391E-16</v>
+        <v>2.084441880825082E-16</v>
       </c>
       <c r="F28">
-        <v>1.094010462930159E-16</v>
+        <v>1.014684948014695E-16</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -13678,16 +13678,16 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>-3.330669073875469E-17</v>
+        <v>-6.661338147750939E-17</v>
       </c>
       <c r="D29">
-        <v>3.330669073875469E-17</v>
+        <v>6.661338147750939E-17</v>
       </c>
       <c r="E29">
-        <v>7.021666937153402E-17</v>
+        <v>1.40433338743068E-16</v>
       </c>
       <c r="F29">
-        <v>4.208561764255826E-17</v>
+        <v>8.526870341586152E-17</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -13698,16 +13698,16 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>-1.665334536937735E-17</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1.665334536937735E-17</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>5.266250202865052E-17</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>3.145802577136417E-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -13738,16 +13738,16 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>-3.330669073875469E-17</v>
+        <v>3.330669073875469E-17</v>
       </c>
       <c r="D32">
         <v>3.330669073875469E-17</v>
       </c>
       <c r="E32">
-        <v>7.021666937153402E-17</v>
+        <v>7.021666937153401E-17</v>
       </c>
       <c r="F32">
-        <v>3.954392137723904E-17</v>
+        <v>4.054495357128274E-17</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -13758,16 +13758,16 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>-3.330669073875469E-17</v>
       </c>
       <c r="D33">
-        <v>6.661338147750939E-17</v>
+        <v>3.330669073875469E-17</v>
       </c>
       <c r="E33">
-        <v>1.110223024625157E-16</v>
+        <v>7.021666937153402E-17</v>
       </c>
       <c r="F33">
-        <v>4.959433785486893E-17</v>
+        <v>4.69584290149803E-17</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -13778,16 +13778,16 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>-3.330669073875469E-17</v>
+        <v>-1.665334536937735E-17</v>
       </c>
       <c r="D34">
-        <v>3.330669073875469E-17</v>
+        <v>1.665334536937735E-17</v>
       </c>
       <c r="E34">
-        <v>7.021666937153402E-17</v>
+        <v>5.266250202865051E-17</v>
       </c>
       <c r="F34">
-        <v>3.700358595097546E-17</v>
+        <v>2.952395209823137E-17</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -13838,16 +13838,16 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1.665334536937735E-17</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1.665334536937735E-17</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>5.266250202865051E-17</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>3.449300231831819E-17</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -13964,10 +13964,10 @@
         <v>4.996003610813205E-17</v>
       </c>
       <c r="E43">
-        <v>9.453208419344605E-17</v>
+        <v>9.453208419344607E-17</v>
       </c>
       <c r="F43">
-        <v>4.69584290149803E-17</v>
+        <v>4.556268962160972E-17</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -13978,16 +13978,16 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.330669073875469E-17</v>
+        <v>4.996003610813205E-17</v>
       </c>
       <c r="D44">
-        <v>9.992007221626409E-17</v>
+        <v>8.326672684688674E-17</v>
       </c>
       <c r="E44">
-        <v>1.530336829712622E-16</v>
+        <v>1.124015143811695E-16</v>
       </c>
       <c r="F44">
-        <v>6.670190362895571E-17</v>
+        <v>5.281812608592855E-17</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -14118,16 +14118,16 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>-1.665334536937735E-17</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>1.665334536937735E-17</v>
+        <v>6.661338147750939E-17</v>
       </c>
       <c r="E51">
-        <v>5.266250202865051E-17</v>
+        <v>1.359739955510518E-16</v>
       </c>
       <c r="F51">
-        <v>3.100145143736858E-17</v>
+        <v>6.989722096282386E-17</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -14141,13 +14141,13 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>3.330669073875469E-17</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>7.850462293418876E-17</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>3.259871902836112E-17</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -14158,16 +14158,16 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>8.326672684688674E-17</v>
+        <v>1.165734175856414E-16</v>
       </c>
       <c r="D53">
-        <v>2.498001805406602E-16</v>
+        <v>1.831867990631508E-16</v>
       </c>
       <c r="E53">
-        <v>3.444376352465766E-16</v>
+        <v>2.835962525803382E-16</v>
       </c>
       <c r="F53">
-        <v>1.489781730384216E-16</v>
+        <v>1.510983221770896E-16</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -14178,16 +14178,16 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>-8.326672684688674E-17</v>
+        <v>-9.992007221626409E-17</v>
       </c>
       <c r="D54">
-        <v>2.164934898019055E-16</v>
+        <v>2.331468351712829E-16</v>
       </c>
       <c r="E54">
-        <v>3.164622522642096E-16</v>
+        <v>3.255813018879823E-16</v>
       </c>
       <c r="F54">
-        <v>1.486277875452334E-16</v>
+        <v>1.488307428459119E-16</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -14198,16 +14198,16 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>-0.02961533333333335</v>
+        <v>-0.02961533333333339</v>
       </c>
       <c r="D55">
-        <v>0.02961533333333335</v>
+        <v>0.02961533333333339</v>
       </c>
       <c r="E55">
-        <v>0.0003787494041065299</v>
+        <v>0.0003787494041065188</v>
       </c>
       <c r="F55">
-        <v>0.0002168673659716208</v>
+        <v>0.0002168673659716074</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -14238,16 +14238,16 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>-4.996003610813205E-17</v>
+        <v>-3.330669073875469E-17</v>
       </c>
       <c r="D57">
-        <v>8.326672684688674E-17</v>
+        <v>9.992007221626409E-17</v>
       </c>
       <c r="E57">
-        <v>1.371024298005671E-16</v>
+        <v>1.719950113979703E-16</v>
       </c>
       <c r="F57">
-        <v>6.630708029509299E-17</v>
+        <v>7.392205891579274E-17</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -14441,13 +14441,13 @@
         <v>1.665334536937735E-17</v>
       </c>
       <c r="D67">
-        <v>8.326672684688674E-17</v>
+        <v>4.996003610813205E-17</v>
       </c>
       <c r="E67">
-        <v>1.656056835017272E-16</v>
+        <v>9.453208419344605E-17</v>
       </c>
       <c r="F67">
-        <v>7.559188124185614E-17</v>
+        <v>4.092536803618784E-17</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -14518,16 +14518,16 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>-9.992007221626409E-17</v>
+        <v>-8.326672684688674E-17</v>
       </c>
       <c r="D71">
-        <v>1.665334536937735E-16</v>
+        <v>1.498801083243961E-16</v>
       </c>
       <c r="E71">
-        <v>2.10650008114602E-16</v>
+        <v>1.962615573354719E-16</v>
       </c>
       <c r="F71">
-        <v>9.288394079106681E-17</v>
+        <v>8.453100303038139E-17</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -14538,16 +14538,16 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>-1.665334536937735E-17</v>
+        <v>1.665334536937735E-17</v>
       </c>
       <c r="D72">
-        <v>1.665334536937735E-17</v>
+        <v>8.326672684688674E-17</v>
       </c>
       <c r="E72">
-        <v>5.266250202865051E-17</v>
+        <v>1.458158653440533E-16</v>
       </c>
       <c r="F72">
-        <v>3.409763600649679E-17</v>
+        <v>7.490328013684074E-17</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -14558,16 +14558,16 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>-1.665334536937735E-17</v>
+        <v>1.665334536937735E-17</v>
       </c>
       <c r="D73">
-        <v>1.665334536937735E-17</v>
+        <v>4.996003610813205E-17</v>
       </c>
       <c r="E73">
-        <v>5.266250202865051E-17</v>
+        <v>9.453208419344607E-17</v>
       </c>
       <c r="F73">
-        <v>2.780450350330821E-17</v>
+        <v>4.532588800992771E-17</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -14598,16 +14598,16 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>-1.665334536937735E-17</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1.665334536937735E-17</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>5.266250202865052E-17</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>2.63478694880111E-17</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -14747,7 +14747,7 @@
         <v>5.266250202865051E-17</v>
       </c>
       <c r="F82">
-        <v>3.367207371989817E-17</v>
+        <v>3.197208260900065E-17</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -14818,16 +14818,16 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>-0.03562033333333343</v>
+        <v>-0.03562033333333336</v>
       </c>
       <c r="D86">
-        <v>0.03562033333333343</v>
+        <v>0.03562033333333336</v>
       </c>
       <c r="E86">
-        <v>0.006251707361854958</v>
+        <v>0.006251707361854949</v>
       </c>
       <c r="F86">
-        <v>0.003361384795104316</v>
+        <v>0.00336138479510431</v>
       </c>
     </row>
     <row r="87" spans="1:6">

--- a/exposan/bwaise/results/MorrisC.xlsx
+++ b/exposan/bwaise/results/MorrisC.xlsx
@@ -848,16 +848,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>-0.4400614527663048</v>
+        <v>-0.4400614527663053</v>
       </c>
       <c r="D5">
-        <v>0.4400614527663048</v>
+        <v>0.4400614527663053</v>
       </c>
       <c r="E5">
-        <v>0.2617622489286183</v>
+        <v>0.2617622489286189</v>
       </c>
       <c r="F5">
-        <v>0.1453903160077794</v>
+        <v>0.1453903160077797</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -888,16 +888,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>-0.1169155881630106</v>
+        <v>-0.1169155881630111</v>
       </c>
       <c r="D7">
-        <v>0.1169155881630106</v>
+        <v>0.1169155881630111</v>
       </c>
       <c r="E7">
-        <v>0.06827192650725743</v>
+        <v>0.0682719265072585</v>
       </c>
       <c r="F7">
-        <v>0.04110134492816833</v>
+        <v>0.04110134492816885</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1188,16 +1188,16 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>-0.08217633622370232</v>
+        <v>-0.08217633622370286</v>
       </c>
       <c r="D22">
-        <v>0.08217633622370232</v>
+        <v>0.08217633622370286</v>
       </c>
       <c r="E22">
-        <v>0.06228884196263018</v>
+        <v>0.06228884196263023</v>
       </c>
       <c r="F22">
-        <v>0.03699648239556171</v>
+        <v>0.0369964823955618</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2088,16 +2088,16 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>0.007821459283754439</v>
+        <v>0.007821459283753907</v>
       </c>
       <c r="D67">
-        <v>0.007821459283754439</v>
+        <v>0.007821459283753907</v>
       </c>
       <c r="E67">
-        <v>0.00346662349004866</v>
+        <v>0.003466623490047792</v>
       </c>
       <c r="F67">
-        <v>0.00204830584759127</v>
+        <v>0.002048305847591005</v>
       </c>
     </row>
     <row r="68" spans="1:6">
